--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F709C-12B7-462B-8BC2-D4D06FCBC516}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08A288-3D94-48AA-AADF-895C63A1A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="18" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="19" r:id="rId3"/>
+    <sheet name="Contents" sheetId="19" r:id="rId3"/>
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -269,9 +271,6 @@
     <t>Each time batch</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>Subfunction description</t>
   </si>
   <si>
@@ -280,6 +279,10 @@
   </si>
   <si>
     <t>Subfunction name</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Contents</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -865,81 +868,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1056,6 +984,110 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1063,15 +1095,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,33 +1157,100 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,93 +1269,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1321,8 +1324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2598,55 +2601,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="123" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="132" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="114" t="s">
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="141" t="s">
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="107">
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="82">
         <v>43404</v>
       </c>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="109"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="84"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2654,53 +2657,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="114" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="120" t="str">
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="95" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="107" t="str">
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="82" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="109"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2708,45 +2711,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="109"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="84"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2783,1034 +2786,1190 @@
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="113" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="110" t="s">
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="110" t="s">
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="111"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="86"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
+      <c r="C8" s="135"/>
+      <c r="D8" s="136">
         <v>43404</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="95" t="s">
+      <c r="E8" s="137"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="101" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104" t="s">
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="101" t="s">
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="144"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="103"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="142"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="90"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="128"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="130"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="90"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="90"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="130"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="90"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="132"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="130"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="90"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="133"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="130"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="90"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="132"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="129"/>
+      <c r="AH14" s="129"/>
+      <c r="AI14" s="130"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="133"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="130"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="90"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="129"/>
+      <c r="AH16" s="129"/>
+      <c r="AI16" s="130"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="133"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="129"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="130"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="133"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="129"/>
+      <c r="AH18" s="129"/>
+      <c r="AI18" s="130"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="90"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="133"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="129"/>
+      <c r="AH19" s="129"/>
+      <c r="AI19" s="130"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="90"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="132"/>
+      <c r="AE20" s="133"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="129"/>
+      <c r="AH20" s="129"/>
+      <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="129"/>
+      <c r="AH21" s="129"/>
+      <c r="AI21" s="130"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="129"/>
+      <c r="AH22" s="129"/>
+      <c r="AI22" s="130"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="132"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="129"/>
+      <c r="AH24" s="129"/>
+      <c r="AI24" s="130"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="132"/>
+      <c r="AE25" s="133"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="130"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="90"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="130"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="129"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="130"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="90"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="129"/>
+      <c r="AH28" s="129"/>
+      <c r="AI28" s="130"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="90"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="129"/>
+      <c r="AH29" s="129"/>
+      <c r="AI29" s="130"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="90"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="133"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="129"/>
+      <c r="AH30" s="129"/>
+      <c r="AI30" s="130"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="90"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="133"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="129"/>
+      <c r="AH31" s="129"/>
+      <c r="AI31" s="130"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="90"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="133"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="129"/>
+      <c r="AI32" s="130"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="133"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="129"/>
+      <c r="AI33" s="130"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -3834,162 +3993,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4145,163 +4148,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="162" t="str">
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="171" t="s">
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="171" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -4361,7 +4364,7 @@
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
@@ -5764,14 +5767,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5781,6 +5776,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5806,163 +5809,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="190" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="147" t="s">
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="176" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31"/>
     </row>
     <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="147" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="176" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="173" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="147"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="176" t="str">
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="177"/>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="173" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -5974,440 +5977,440 @@
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="217" t="s">
+      <c r="C7" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="199" t="s">
+      <c r="D7" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="199" t="s">
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="199" t="s">
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="183"/>
+      <c r="T7" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="200"/>
-      <c r="T7" s="199" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="199" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="199" t="s">
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="199" t="s">
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="203"/>
-      <c r="AM7" s="203"/>
-      <c r="AN7" s="203"/>
-      <c r="AO7" s="203"/>
-      <c r="AP7" s="200"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
+      <c r="AN7" s="182"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="183"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="218"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="201"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="201"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="201"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="202"/>
-      <c r="AH8" s="201"/>
-      <c r="AI8" s="204"/>
-      <c r="AJ8" s="202"/>
-      <c r="AK8" s="201"/>
-      <c r="AL8" s="204"/>
-      <c r="AM8" s="204"/>
-      <c r="AN8" s="204"/>
-      <c r="AO8" s="204"/>
-      <c r="AP8" s="202"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="185"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185"/>
+      <c r="AG8" s="186"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="186"/>
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="185"/>
+      <c r="AM8" s="185"/>
+      <c r="AN8" s="185"/>
+      <c r="AO8" s="185"/>
+      <c r="AP8" s="186"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="216"/>
-      <c r="F9" s="214" t="s">
+      <c r="E9" s="193"/>
+      <c r="F9" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="214" t="s">
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="216"/>
-      <c r="R9" s="181" t="s">
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="182"/>
-      <c r="T9" s="181" t="s">
+      <c r="S9" s="191"/>
+      <c r="T9" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="183"/>
-      <c r="V9" s="183"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="181" t="s">
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="181" t="s">
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="190"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="183"/>
-      <c r="AJ9" s="182"/>
-      <c r="AK9" s="181" t="s">
+      <c r="AI9" s="190"/>
+      <c r="AJ9" s="191"/>
+      <c r="AK9" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="AL9" s="183"/>
-      <c r="AM9" s="183"/>
-      <c r="AN9" s="183"/>
-      <c r="AO9" s="183"/>
-      <c r="AP9" s="182"/>
+      <c r="AL9" s="190"/>
+      <c r="AM9" s="190"/>
+      <c r="AN9" s="190"/>
+      <c r="AO9" s="190"/>
+      <c r="AP9" s="191"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="181" t="s">
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="182"/>
-      <c r="T10" s="181" t="s">
+      <c r="S10" s="191"/>
+      <c r="T10" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="183"/>
-      <c r="V10" s="183"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="181" t="s">
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="191"/>
+      <c r="Z10" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="181" t="s">
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="183"/>
-      <c r="AJ10" s="182"/>
-      <c r="AK10" s="181"/>
-      <c r="AL10" s="183"/>
-      <c r="AM10" s="183"/>
-      <c r="AN10" s="183"/>
-      <c r="AO10" s="183"/>
-      <c r="AP10" s="182"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="191"/>
+      <c r="AK10" s="189"/>
+      <c r="AL10" s="190"/>
+      <c r="AM10" s="190"/>
+      <c r="AN10" s="190"/>
+      <c r="AO10" s="190"/>
+      <c r="AP10" s="191"/>
     </row>
     <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="181" t="s">
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="214"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="182"/>
-      <c r="T11" s="181" t="s">
+      <c r="S11" s="191"/>
+      <c r="T11" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="183"/>
-      <c r="V11" s="183"/>
-      <c r="W11" s="183"/>
-      <c r="X11" s="183"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="181" t="s">
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="191"/>
+      <c r="Z11" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="183"/>
-      <c r="AB11" s="183"/>
-      <c r="AC11" s="183"/>
-      <c r="AD11" s="183"/>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="181" t="s">
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="183"/>
-      <c r="AJ11" s="182"/>
-      <c r="AK11" s="181"/>
-      <c r="AL11" s="183"/>
-      <c r="AM11" s="183"/>
-      <c r="AN11" s="183"/>
-      <c r="AO11" s="183"/>
-      <c r="AP11" s="182"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="191"/>
+      <c r="AK11" s="189"/>
+      <c r="AL11" s="190"/>
+      <c r="AM11" s="190"/>
+      <c r="AN11" s="190"/>
+      <c r="AO11" s="190"/>
+      <c r="AP11" s="191"/>
     </row>
     <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="181" t="s">
+      <c r="D12" s="216"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="182"/>
-      <c r="T12" s="181" t="s">
+      <c r="S12" s="191"/>
+      <c r="T12" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="181" t="s">
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="183"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="181" t="s">
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="183"/>
-      <c r="AJ12" s="182"/>
-      <c r="AK12" s="181"/>
-      <c r="AL12" s="183"/>
-      <c r="AM12" s="183"/>
-      <c r="AN12" s="183"/>
-      <c r="AO12" s="183"/>
-      <c r="AP12" s="182"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="191"/>
+      <c r="AK12" s="189"/>
+      <c r="AL12" s="190"/>
+      <c r="AM12" s="190"/>
+      <c r="AN12" s="190"/>
+      <c r="AO12" s="190"/>
+      <c r="AP12" s="191"/>
     </row>
     <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="214" t="s">
+      <c r="D13" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="216"/>
-      <c r="F13" s="214" t="s">
+      <c r="E13" s="193"/>
+      <c r="F13" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="214" t="s">
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="181" t="s">
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="182"/>
-      <c r="T13" s="181" t="s">
+      <c r="S13" s="191"/>
+      <c r="T13" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="183"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="183"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="181" t="s">
+      <c r="U13" s="190"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="183"/>
-      <c r="AB13" s="183"/>
-      <c r="AC13" s="183"/>
-      <c r="AD13" s="183"/>
-      <c r="AE13" s="183"/>
-      <c r="AF13" s="183"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="181" t="s">
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="183"/>
-      <c r="AJ13" s="182"/>
-      <c r="AK13" s="181" t="s">
+      <c r="AI13" s="190"/>
+      <c r="AJ13" s="191"/>
+      <c r="AK13" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="183"/>
-      <c r="AM13" s="183"/>
-      <c r="AN13" s="183"/>
-      <c r="AO13" s="183"/>
-      <c r="AP13" s="182"/>
+      <c r="AL13" s="190"/>
+      <c r="AM13" s="190"/>
+      <c r="AN13" s="190"/>
+      <c r="AO13" s="190"/>
+      <c r="AP13" s="191"/>
     </row>
     <row r="14" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="34">
         <v>6</v>
       </c>
-      <c r="D14" s="181" t="s">
+      <c r="D14" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="181" t="s">
+      <c r="E14" s="191"/>
+      <c r="F14" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="181" t="s">
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="181" t="s">
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="S14" s="182"/>
-      <c r="T14" s="181" t="s">
+      <c r="S14" s="191"/>
+      <c r="T14" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="183"/>
-      <c r="V14" s="183"/>
-      <c r="W14" s="183"/>
-      <c r="X14" s="183"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="181" t="s">
+      <c r="U14" s="190"/>
+      <c r="V14" s="190"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="190"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="AA14" s="183"/>
-      <c r="AB14" s="183"/>
-      <c r="AC14" s="183"/>
-      <c r="AD14" s="183"/>
-      <c r="AE14" s="183"/>
-      <c r="AF14" s="183"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="181" t="s">
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="190"/>
+      <c r="AC14" s="190"/>
+      <c r="AD14" s="190"/>
+      <c r="AE14" s="190"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="AI14" s="183"/>
-      <c r="AJ14" s="182"/>
-      <c r="AK14" s="181"/>
-      <c r="AL14" s="183"/>
-      <c r="AM14" s="183"/>
-      <c r="AN14" s="183"/>
-      <c r="AO14" s="183"/>
-      <c r="AP14" s="182"/>
+      <c r="AI14" s="190"/>
+      <c r="AJ14" s="191"/>
+      <c r="AK14" s="189"/>
+      <c r="AL14" s="190"/>
+      <c r="AM14" s="190"/>
+      <c r="AN14" s="190"/>
+      <c r="AO14" s="190"/>
+      <c r="AP14" s="191"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
@@ -6988,6 +6991,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z13:AG13"/>
@@ -7004,64 +7065,6 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08A288-3D94-48AA-AADF-895C63A1A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5843D4-A345-4556-8631-11C5B95518DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2820" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" state="hidden" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
@@ -22,14 +22,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>PJ名</t>
   </si>
@@ -283,6 +281,30 @@
   </si>
   <si>
     <t>Contents</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10202</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10203</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Project update</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Enter the search conditions of the project, and the list of projects corresponding to the search conditions is displayed. When you click a link in the list, the detailed screen of one project data is displayed.</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Project Inquiry</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Update one data of the project to be managed.</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -679,7 +701,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -865,6 +887,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,6 +1206,15 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1179,15 +1237,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,12 +2048,12 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="81">
+      <c r="I25" s="90">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43404</v>
       </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="14"/>
@@ -2601,55 +2650,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="98" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="107" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="89" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="116" t="s">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="82">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="91">
         <v>43404</v>
       </c>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="84"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2657,53 +2706,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="89" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="95" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="82" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="91" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="93"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2711,45 +2760,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="84"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2786,1028 +2835,1028 @@
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="85" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="88" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="85" t="s">
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="85" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="86"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136">
+      <c r="C8" s="144"/>
+      <c r="D8" s="145">
         <v>43404</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="134" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="140" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="143" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="140" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="142"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="151"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="139"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="139"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="138"/>
+      <c r="AH12" s="138"/>
+      <c r="AI12" s="139"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="133"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="141"/>
+      <c r="AD14" s="141"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="139"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="133"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="141"/>
+      <c r="X15" s="141"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="141"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="139"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="141"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="141"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="139"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="141"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="141"/>
+      <c r="Y18" s="141"/>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="141"/>
+      <c r="AB18" s="141"/>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="141"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="139"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="141"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="139"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="133"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="141"/>
+      <c r="Y20" s="141"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="141"/>
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="139"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="133"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="141"/>
+      <c r="AC21" s="141"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="142"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="139"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="141"/>
+      <c r="Y22" s="141"/>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="141"/>
+      <c r="AB22" s="141"/>
+      <c r="AC22" s="141"/>
+      <c r="AD22" s="141"/>
+      <c r="AE22" s="142"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="139"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="133"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="141"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="141"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="142"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="139"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="133"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="142"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="139"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="142"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="139"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="141"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="141"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="139"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="141"/>
+      <c r="AC28" s="141"/>
+      <c r="AD28" s="141"/>
+      <c r="AE28" s="142"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="139"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="141"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="139"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="132"/>
-      <c r="AE30" s="133"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="141"/>
+      <c r="AB30" s="141"/>
+      <c r="AC30" s="141"/>
+      <c r="AD30" s="141"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="139"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="141"/>
+      <c r="Y31" s="141"/>
+      <c r="Z31" s="141"/>
+      <c r="AA31" s="141"/>
+      <c r="AB31" s="141"/>
+      <c r="AC31" s="141"/>
+      <c r="AD31" s="141"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="139"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
-      <c r="AD32" s="132"/>
-      <c r="AE32" s="133"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="139"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="142"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="139"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
@@ -4148,163 +4197,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="str">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="179" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="156">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="158"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="179" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="158"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="158"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -5797,10 +5846,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5809,163 +5858,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="195" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="204" t="str">
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="206"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="156">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="158"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31"/>
     </row>
     <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="158"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211"/>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="158"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -5977,568 +6026,592 @@
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="187" t="s">
+      <c r="C7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="181" t="s">
+      <c r="D7" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="181" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="181" t="s">
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="181" t="s">
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="183"/>
-      <c r="T7" s="181" t="s">
+      <c r="S7" s="195"/>
+      <c r="T7" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="182"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="181" t="s">
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="181" t="s">
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="194"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="181" t="s">
+      <c r="AI7" s="194"/>
+      <c r="AJ7" s="195"/>
+      <c r="AK7" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
-      <c r="AN7" s="182"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="183"/>
+      <c r="AL7" s="194"/>
+      <c r="AM7" s="194"/>
+      <c r="AN7" s="194"/>
+      <c r="AO7" s="194"/>
+      <c r="AP7" s="195"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="188"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185"/>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185"/>
-      <c r="AG8" s="186"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="186"/>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="185"/>
-      <c r="AM8" s="185"/>
-      <c r="AN8" s="185"/>
-      <c r="AO8" s="185"/>
-      <c r="AP8" s="186"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="198"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="198"/>
+      <c r="AH8" s="196"/>
+      <c r="AI8" s="197"/>
+      <c r="AJ8" s="198"/>
+      <c r="AK8" s="196"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="197"/>
+      <c r="AP8" s="198"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="192" t="s">
+      <c r="E9" s="202"/>
+      <c r="F9" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="192" t="s">
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="189" t="s">
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="190" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="191"/>
-      <c r="T9" s="189" t="s">
+      <c r="T9" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
       <c r="Y9" s="191"/>
-      <c r="Z9" s="189" t="s">
+      <c r="Z9" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="190"/>
-      <c r="AF9" s="190"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="192"/>
       <c r="AG9" s="191"/>
-      <c r="AH9" s="189" t="s">
+      <c r="AH9" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="190"/>
+      <c r="AI9" s="192"/>
       <c r="AJ9" s="191"/>
-      <c r="AK9" s="189" t="s">
+      <c r="AK9" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="AL9" s="190"/>
-      <c r="AM9" s="190"/>
-      <c r="AN9" s="190"/>
-      <c r="AO9" s="190"/>
+      <c r="AL9" s="192"/>
+      <c r="AM9" s="192"/>
+      <c r="AN9" s="192"/>
+      <c r="AO9" s="192"/>
       <c r="AP9" s="191"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="189" t="s">
+      <c r="D10" s="222"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="190" t="s">
         <v>50</v>
       </c>
       <c r="S10" s="191"/>
-      <c r="T10" s="189" t="s">
+      <c r="T10" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="190"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
       <c r="Y10" s="191"/>
-      <c r="Z10" s="189" t="s">
+      <c r="Z10" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="190"/>
-      <c r="AF10" s="190"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="192"/>
       <c r="AG10" s="191"/>
-      <c r="AH10" s="189" t="s">
+      <c r="AH10" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="190"/>
+      <c r="AI10" s="192"/>
       <c r="AJ10" s="191"/>
-      <c r="AK10" s="189"/>
-      <c r="AL10" s="190"/>
-      <c r="AM10" s="190"/>
-      <c r="AN10" s="190"/>
-      <c r="AO10" s="190"/>
+      <c r="AK10" s="190"/>
+      <c r="AL10" s="192"/>
+      <c r="AM10" s="192"/>
+      <c r="AN10" s="192"/>
+      <c r="AO10" s="192"/>
       <c r="AP10" s="191"/>
     </row>
     <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="213"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="214"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="214"/>
-      <c r="R11" s="189" t="s">
+      <c r="D11" s="222"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="190" t="s">
         <v>53</v>
       </c>
       <c r="S11" s="191"/>
-      <c r="T11" s="189" t="s">
+      <c r="T11" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
       <c r="Y11" s="191"/>
-      <c r="Z11" s="189" t="s">
+      <c r="Z11" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
       <c r="AG11" s="191"/>
-      <c r="AH11" s="189" t="s">
+      <c r="AH11" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="190"/>
+      <c r="AI11" s="192"/>
       <c r="AJ11" s="191"/>
-      <c r="AK11" s="189"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="190"/>
+      <c r="AK11" s="190"/>
+      <c r="AL11" s="192"/>
+      <c r="AM11" s="192"/>
+      <c r="AN11" s="192"/>
+      <c r="AO11" s="192"/>
       <c r="AP11" s="191"/>
     </row>
     <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="216"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="189" t="s">
+      <c r="D12" s="225"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="227"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="190" t="s">
         <v>56</v>
       </c>
       <c r="S12" s="191"/>
-      <c r="T12" s="189" t="s">
+      <c r="T12" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="190"/>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
       <c r="Y12" s="191"/>
-      <c r="Z12" s="189" t="s">
+      <c r="Z12" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="190"/>
-      <c r="AF12" s="190"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
       <c r="AG12" s="191"/>
-      <c r="AH12" s="189" t="s">
+      <c r="AH12" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="190"/>
+      <c r="AI12" s="192"/>
       <c r="AJ12" s="191"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="190"/>
-      <c r="AM12" s="190"/>
-      <c r="AN12" s="190"/>
-      <c r="AO12" s="190"/>
+      <c r="AK12" s="190"/>
+      <c r="AL12" s="192"/>
+      <c r="AM12" s="192"/>
+      <c r="AN12" s="192"/>
+      <c r="AO12" s="192"/>
       <c r="AP12" s="191"/>
     </row>
     <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="192" t="s">
+      <c r="E13" s="202"/>
+      <c r="F13" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="192" t="s">
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="189" t="s">
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="190" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="191"/>
-      <c r="T13" s="189" t="s">
+      <c r="T13" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
       <c r="Y13" s="191"/>
-      <c r="Z13" s="189" t="s">
+      <c r="Z13" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="190"/>
-      <c r="AD13" s="190"/>
-      <c r="AE13" s="190"/>
-      <c r="AF13" s="190"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
       <c r="AG13" s="191"/>
-      <c r="AH13" s="189" t="s">
+      <c r="AH13" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="190"/>
+      <c r="AI13" s="192"/>
       <c r="AJ13" s="191"/>
-      <c r="AK13" s="189" t="s">
+      <c r="AK13" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="190"/>
-      <c r="AM13" s="190"/>
-      <c r="AN13" s="190"/>
-      <c r="AO13" s="190"/>
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="192"/>
+      <c r="AN13" s="192"/>
+      <c r="AO13" s="192"/>
       <c r="AP13" s="191"/>
     </row>
-    <row r="14" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="34">
         <v>6</v>
       </c>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="191"/>
+      <c r="T14" s="190" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="190" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="192"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="192"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="190" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI14" s="192"/>
+      <c r="AJ14" s="191"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="83"/>
+    </row>
+    <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="34">
+        <v>7</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="191"/>
+      <c r="T15" s="190" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="190" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="190" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI15" s="192"/>
+      <c r="AJ15" s="191"/>
+      <c r="AK15" s="190" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL15" s="192"/>
+      <c r="AM15" s="192"/>
+      <c r="AN15" s="192"/>
+      <c r="AO15" s="192"/>
+      <c r="AP15" s="191"/>
+    </row>
+    <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="34">
+        <v>8</v>
+      </c>
+      <c r="D16" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="189" t="s">
+      <c r="E16" s="191"/>
+      <c r="F16" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="189" t="s">
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="189" t="s">
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="191"/>
+      <c r="R16" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="S14" s="191"/>
-      <c r="T14" s="189" t="s">
+      <c r="S16" s="191"/>
+      <c r="T16" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="189" t="s">
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="191"/>
+      <c r="Z16" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="AA14" s="190"/>
-      <c r="AB14" s="190"/>
-      <c r="AC14" s="190"/>
-      <c r="AD14" s="190"/>
-      <c r="AE14" s="190"/>
-      <c r="AF14" s="190"/>
-      <c r="AG14" s="191"/>
-      <c r="AH14" s="189" t="s">
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="AI14" s="190"/>
-      <c r="AJ14" s="191"/>
-      <c r="AK14" s="189"/>
-      <c r="AL14" s="190"/>
-      <c r="AM14" s="190"/>
-      <c r="AN14" s="190"/>
-      <c r="AO14" s="190"/>
-      <c r="AP14" s="191"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-    </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AI16" s="192"/>
+      <c r="AJ16" s="191"/>
+      <c r="AK16" s="190"/>
+      <c r="AL16" s="192"/>
+      <c r="AM16" s="192"/>
+      <c r="AN16" s="192"/>
+      <c r="AO16" s="192"/>
+      <c r="AP16" s="191"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -6579,7 +6652,7 @@
       <c r="AM18" s="38"/>
       <c r="AN18" s="38"/>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -6620,7 +6693,7 @@
       <c r="AM19" s="38"/>
       <c r="AN19" s="38"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -6661,7 +6734,7 @@
       <c r="AM20" s="38"/>
       <c r="AN20" s="38"/>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -6702,7 +6775,7 @@
       <c r="AM21" s="38"/>
       <c r="AN21" s="38"/>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -6743,7 +6816,7 @@
       <c r="AM22" s="38"/>
       <c r="AN22" s="38"/>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6784,7 +6857,7 @@
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -6825,7 +6898,7 @@
       <c r="AM24" s="38"/>
       <c r="AN24" s="38"/>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6866,7 +6939,7 @@
       <c r="AM25" s="38"/>
       <c r="AN25" s="38"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -6907,7 +6980,7 @@
       <c r="AM26" s="38"/>
       <c r="AN26" s="38"/>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -6948,7 +7021,7 @@
       <c r="AM27" s="38"/>
       <c r="AN27" s="38"/>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -6989,14 +7062,101 @@
       <c r="AM28" s="38"/>
       <c r="AN28" s="38"/>
     </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="AK14:AP14"/>
+  <mergeCells count="83">
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="K10:Q10"/>
@@ -7010,9 +7170,8 @@
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="K12:Q12"/>
     <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AK10:AP10"/>
     <mergeCell ref="AK12:AP12"/>
     <mergeCell ref="R11:S11"/>
@@ -7049,7 +7208,6 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="K7:Q8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
@@ -7065,6 +7223,12 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="K7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5843D4-A345-4556-8631-11C5B95518DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F064B30-715A-4CB4-8694-00B26FEC65FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" state="hidden" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -917,6 +919,81 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1033,80 +1110,83 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1126,198 +1206,120 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2650,55 +2652,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="107" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="116" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="98" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="125" t="s">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="91">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="116">
         <v>43404</v>
       </c>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="93"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="118"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2706,53 +2708,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="98" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="104" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="91" t="str">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="116" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="93"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2760,45 +2762,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="93"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2835,1190 +2837,1034 @@
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="97" t="s">
+      <c r="H7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="94" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="94" t="s">
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="95"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="120"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43404</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="143" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="149" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="149" t="s">
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="151"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="137"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="138"/>
-      <c r="AI9" s="139"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="99"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="138"/>
-      <c r="AI10" s="139"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="99"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="141"/>
-      <c r="AB11" s="141"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="138"/>
-      <c r="AH11" s="138"/>
-      <c r="AI11" s="139"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="99"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="138"/>
-      <c r="AH12" s="138"/>
-      <c r="AI12" s="139"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="99"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="138"/>
-      <c r="AH13" s="138"/>
-      <c r="AI13" s="139"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="99"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="142"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="138"/>
-      <c r="AH14" s="138"/>
-      <c r="AI14" s="139"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="99"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="141"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="141"/>
-      <c r="AA15" s="141"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="141"/>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="139"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="99"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="139"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="141"/>
-      <c r="Y16" s="141"/>
-      <c r="Z16" s="141"/>
-      <c r="AA16" s="141"/>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="141"/>
-      <c r="AD16" s="141"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="139"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="99"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="138"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="138"/>
-      <c r="AH17" s="138"/>
-      <c r="AI17" s="139"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="99"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="142"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="138"/>
-      <c r="AH18" s="138"/>
-      <c r="AI18" s="139"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="99"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="138"/>
-      <c r="AH19" s="138"/>
-      <c r="AI19" s="139"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="99"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="142"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="138"/>
-      <c r="AH20" s="138"/>
-      <c r="AI20" s="139"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="99"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="141"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="142"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="138"/>
-      <c r="AH21" s="138"/>
-      <c r="AI21" s="139"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="99"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="139"/>
-      <c r="Q22" s="140"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="141"/>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="141"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="142"/>
-      <c r="AF22" s="137"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="139"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="99"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="139"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="139"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="99"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="140"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
-      <c r="AF24" s="137"/>
-      <c r="AG24" s="138"/>
-      <c r="AH24" s="138"/>
-      <c r="AI24" s="139"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="99"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="139"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="142"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="138"/>
-      <c r="AH25" s="138"/>
-      <c r="AI25" s="139"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="102"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="99"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="142"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="138"/>
-      <c r="AI26" s="139"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="99"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="142"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="138"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="139"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="99"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="141"/>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="141"/>
-      <c r="Z28" s="141"/>
-      <c r="AA28" s="141"/>
-      <c r="AB28" s="141"/>
-      <c r="AC28" s="141"/>
-      <c r="AD28" s="141"/>
-      <c r="AE28" s="142"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="139"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="99"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="141"/>
-      <c r="X29" s="141"/>
-      <c r="Y29" s="141"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="141"/>
-      <c r="AC29" s="141"/>
-      <c r="AD29" s="141"/>
-      <c r="AE29" s="142"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="138"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="139"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="99"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="138"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="140"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="141"/>
-      <c r="X30" s="141"/>
-      <c r="Y30" s="141"/>
-      <c r="Z30" s="141"/>
-      <c r="AA30" s="141"/>
-      <c r="AB30" s="141"/>
-      <c r="AC30" s="141"/>
-      <c r="AD30" s="141"/>
-      <c r="AE30" s="142"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="138"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="139"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="99"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="141"/>
-      <c r="W31" s="141"/>
-      <c r="X31" s="141"/>
-      <c r="Y31" s="141"/>
-      <c r="Z31" s="141"/>
-      <c r="AA31" s="141"/>
-      <c r="AB31" s="141"/>
-      <c r="AC31" s="141"/>
-      <c r="AD31" s="141"/>
-      <c r="AE31" s="142"/>
-      <c r="AF31" s="137"/>
-      <c r="AG31" s="138"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="139"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="99"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
-      <c r="W32" s="141"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141"/>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="141"/>
-      <c r="AC32" s="141"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="142"/>
-      <c r="AF32" s="137"/>
-      <c r="AG32" s="138"/>
-      <c r="AH32" s="138"/>
-      <c r="AI32" s="139"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="99"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="142"/>
-      <c r="AF33" s="137"/>
-      <c r="AG33" s="138"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="139"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="99"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4042,6 +3888,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4197,163 +4199,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="170" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="179" t="str">
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="188" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="188" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="189"/>
+      <c r="AC3" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="156" t="str">
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -5816,6 +5818,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5825,14 +5835,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5849,7 +5851,7 @@
   <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5858,163 +5860,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="162" t="str">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="204" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="206"/>
-      <c r="S1" s="213" t="str">
+      <c r="P1" s="215"/>
+      <c r="Q1" s="215"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="215"/>
-      <c r="AA1" s="167" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31"/>
     </row>
     <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="162" t="str">
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="167" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="219"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
     <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="162" t="str">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="158"/>
+      <c r="AC3" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="156" t="str">
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
@@ -6026,382 +6028,382 @@
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="199" t="s">
+      <c r="C7" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="193" t="s">
+      <c r="E7" s="209"/>
+      <c r="F7" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="193" t="s">
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="194"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="194"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="195"/>
-      <c r="R7" s="193" t="s">
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="195"/>
-      <c r="T7" s="193" t="s">
+      <c r="S7" s="209"/>
+      <c r="T7" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="194"/>
-      <c r="V7" s="194"/>
-      <c r="W7" s="194"/>
-      <c r="X7" s="194"/>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="193" t="s">
+      <c r="U7" s="212"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="194"/>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="194"/>
-      <c r="AD7" s="194"/>
-      <c r="AE7" s="194"/>
-      <c r="AF7" s="194"/>
-      <c r="AG7" s="195"/>
-      <c r="AH7" s="193" t="s">
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="212"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="209"/>
+      <c r="AH7" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="194"/>
-      <c r="AJ7" s="195"/>
-      <c r="AK7" s="193" t="s">
+      <c r="AI7" s="212"/>
+      <c r="AJ7" s="209"/>
+      <c r="AK7" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="194"/>
-      <c r="AM7" s="194"/>
-      <c r="AN7" s="194"/>
-      <c r="AO7" s="194"/>
-      <c r="AP7" s="195"/>
+      <c r="AL7" s="212"/>
+      <c r="AM7" s="212"/>
+      <c r="AN7" s="212"/>
+      <c r="AO7" s="212"/>
+      <c r="AP7" s="209"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="200"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="196"/>
-      <c r="AI8" s="197"/>
-      <c r="AJ8" s="198"/>
-      <c r="AK8" s="196"/>
-      <c r="AL8" s="197"/>
-      <c r="AM8" s="197"/>
-      <c r="AN8" s="197"/>
-      <c r="AO8" s="197"/>
-      <c r="AP8" s="198"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="213"/>
+      <c r="N8" s="213"/>
+      <c r="O8" s="213"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="210"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="210"/>
+      <c r="U8" s="213"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="213"/>
+      <c r="AB8" s="213"/>
+      <c r="AC8" s="213"/>
+      <c r="AD8" s="213"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="213"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="210"/>
+      <c r="AI8" s="213"/>
+      <c r="AJ8" s="211"/>
+      <c r="AK8" s="210"/>
+      <c r="AL8" s="213"/>
+      <c r="AM8" s="213"/>
+      <c r="AN8" s="213"/>
+      <c r="AO8" s="213"/>
+      <c r="AP8" s="211"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="201" t="s">
+      <c r="E9" s="225"/>
+      <c r="F9" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="201" t="s">
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="225"/>
+      <c r="K9" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="202"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="225"/>
       <c r="R9" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="191"/>
+      <c r="S9" s="192"/>
       <c r="T9" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="192"/>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="192"/>
       <c r="Z9" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="192"/>
-      <c r="AF9" s="192"/>
-      <c r="AG9" s="191"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="191"/>
+      <c r="AC9" s="191"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="191"/>
+      <c r="AF9" s="191"/>
+      <c r="AG9" s="192"/>
       <c r="AH9" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="192"/>
-      <c r="AJ9" s="191"/>
+      <c r="AI9" s="191"/>
+      <c r="AJ9" s="192"/>
       <c r="AK9" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="AL9" s="192"/>
-      <c r="AM9" s="192"/>
-      <c r="AN9" s="192"/>
-      <c r="AO9" s="192"/>
-      <c r="AP9" s="191"/>
+      <c r="AL9" s="191"/>
+      <c r="AM9" s="191"/>
+      <c r="AN9" s="191"/>
+      <c r="AO9" s="191"/>
+      <c r="AP9" s="192"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="222"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="223"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="195"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="194"/>
       <c r="R10" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="191"/>
+      <c r="S10" s="192"/>
       <c r="T10" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="192"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="191"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="192"/>
       <c r="Z10" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="192"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="192"/>
-      <c r="AG10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="191"/>
+      <c r="AC10" s="191"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="191"/>
+      <c r="AG10" s="192"/>
       <c r="AH10" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="192"/>
-      <c r="AJ10" s="191"/>
+      <c r="AI10" s="191"/>
+      <c r="AJ10" s="192"/>
       <c r="AK10" s="190"/>
-      <c r="AL10" s="192"/>
-      <c r="AM10" s="192"/>
-      <c r="AN10" s="192"/>
-      <c r="AO10" s="192"/>
-      <c r="AP10" s="191"/>
+      <c r="AL10" s="191"/>
+      <c r="AM10" s="191"/>
+      <c r="AN10" s="191"/>
+      <c r="AO10" s="191"/>
+      <c r="AP10" s="192"/>
     </row>
     <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="222"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="223"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="194"/>
       <c r="R11" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="191"/>
+      <c r="S11" s="192"/>
       <c r="T11" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="192"/>
       <c r="Z11" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="192"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="192"/>
-      <c r="AF11" s="192"/>
-      <c r="AG11" s="191"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="191"/>
+      <c r="AC11" s="191"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="191"/>
+      <c r="AF11" s="191"/>
+      <c r="AG11" s="192"/>
       <c r="AH11" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="192"/>
-      <c r="AJ11" s="191"/>
+      <c r="AI11" s="191"/>
+      <c r="AJ11" s="192"/>
       <c r="AK11" s="190"/>
-      <c r="AL11" s="192"/>
-      <c r="AM11" s="192"/>
-      <c r="AN11" s="192"/>
-      <c r="AO11" s="192"/>
-      <c r="AP11" s="191"/>
+      <c r="AL11" s="191"/>
+      <c r="AM11" s="191"/>
+      <c r="AN11" s="191"/>
+      <c r="AO11" s="191"/>
+      <c r="AP11" s="192"/>
     </row>
     <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="227"/>
-      <c r="Q12" s="226"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="197"/>
       <c r="R12" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="191"/>
+      <c r="S12" s="192"/>
       <c r="T12" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="192"/>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="192"/>
       <c r="Z12" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
-      <c r="AF12" s="192"/>
-      <c r="AG12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="191"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="191"/>
+      <c r="AF12" s="191"/>
+      <c r="AG12" s="192"/>
       <c r="AH12" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="192"/>
-      <c r="AJ12" s="191"/>
+      <c r="AI12" s="191"/>
+      <c r="AJ12" s="192"/>
       <c r="AK12" s="190"/>
-      <c r="AL12" s="192"/>
-      <c r="AM12" s="192"/>
-      <c r="AN12" s="192"/>
-      <c r="AO12" s="192"/>
-      <c r="AP12" s="191"/>
+      <c r="AL12" s="191"/>
+      <c r="AM12" s="191"/>
+      <c r="AN12" s="191"/>
+      <c r="AO12" s="191"/>
+      <c r="AP12" s="192"/>
     </row>
     <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="201" t="s">
+      <c r="D13" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="201" t="s">
+      <c r="E13" s="225"/>
+      <c r="F13" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="201" t="s">
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="202"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="225"/>
       <c r="R13" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="191"/>
+      <c r="S13" s="192"/>
       <c r="T13" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="191"/>
+      <c r="U13" s="191"/>
+      <c r="V13" s="191"/>
+      <c r="W13" s="191"/>
+      <c r="X13" s="191"/>
+      <c r="Y13" s="192"/>
       <c r="Z13" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="192"/>
-      <c r="AG13" s="191"/>
+      <c r="AA13" s="191"/>
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="191"/>
+      <c r="AD13" s="191"/>
+      <c r="AE13" s="191"/>
+      <c r="AF13" s="191"/>
+      <c r="AG13" s="192"/>
       <c r="AH13" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="191"/>
+      <c r="AI13" s="191"/>
+      <c r="AJ13" s="192"/>
       <c r="AK13" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="192"/>
-      <c r="AM13" s="192"/>
-      <c r="AN13" s="192"/>
-      <c r="AO13" s="192"/>
-      <c r="AP13" s="191"/>
+      <c r="AL13" s="191"/>
+      <c r="AM13" s="191"/>
+      <c r="AN13" s="191"/>
+      <c r="AO13" s="191"/>
+      <c r="AP13" s="192"/>
     </row>
     <row r="14" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="34">
@@ -6424,30 +6426,30 @@
       <c r="R14" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="191"/>
+      <c r="S14" s="192"/>
       <c r="T14" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="U14" s="192"/>
-      <c r="V14" s="192"/>
-      <c r="W14" s="192"/>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="191"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="192"/>
       <c r="Z14" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="192"/>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="192"/>
-      <c r="AE14" s="192"/>
-      <c r="AF14" s="192"/>
-      <c r="AG14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="191"/>
+      <c r="AD14" s="191"/>
+      <c r="AE14" s="191"/>
+      <c r="AF14" s="191"/>
+      <c r="AG14" s="192"/>
       <c r="AH14" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI14" s="192"/>
-      <c r="AJ14" s="191"/>
+      <c r="AI14" s="191"/>
+      <c r="AJ14" s="192"/>
       <c r="AK14" s="81"/>
       <c r="AL14" s="82"/>
       <c r="AM14" s="82"/>
@@ -6476,38 +6478,38 @@
       <c r="R15" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="S15" s="191"/>
+      <c r="S15" s="192"/>
       <c r="T15" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="U15" s="192"/>
-      <c r="V15" s="192"/>
-      <c r="W15" s="192"/>
-      <c r="X15" s="192"/>
-      <c r="Y15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="191"/>
+      <c r="X15" s="191"/>
+      <c r="Y15" s="192"/>
       <c r="Z15" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="192"/>
-      <c r="AE15" s="192"/>
-      <c r="AF15" s="192"/>
-      <c r="AG15" s="191"/>
+      <c r="AA15" s="191"/>
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="191"/>
+      <c r="AG15" s="192"/>
       <c r="AH15" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI15" s="192"/>
-      <c r="AJ15" s="191"/>
+      <c r="AI15" s="191"/>
+      <c r="AJ15" s="192"/>
       <c r="AK15" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL15" s="192"/>
-      <c r="AM15" s="192"/>
-      <c r="AN15" s="192"/>
-      <c r="AO15" s="192"/>
-      <c r="AP15" s="191"/>
+      <c r="AL15" s="191"/>
+      <c r="AM15" s="191"/>
+      <c r="AN15" s="191"/>
+      <c r="AO15" s="191"/>
+      <c r="AP15" s="192"/>
     </row>
     <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="34">
@@ -6516,56 +6518,56 @@
       <c r="D16" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="191"/>
+      <c r="E16" s="192"/>
       <c r="F16" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
       <c r="K16" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="192"/>
       <c r="R16" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="191"/>
+      <c r="S16" s="192"/>
       <c r="T16" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="191"/>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="192"/>
       <c r="Z16" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="192"/>
-      <c r="AE16" s="192"/>
-      <c r="AF16" s="192"/>
-      <c r="AG16" s="191"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="191"/>
+      <c r="AD16" s="191"/>
+      <c r="AE16" s="191"/>
+      <c r="AF16" s="191"/>
+      <c r="AG16" s="192"/>
       <c r="AH16" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="AI16" s="192"/>
-      <c r="AJ16" s="191"/>
+      <c r="AI16" s="191"/>
+      <c r="AJ16" s="192"/>
       <c r="AK16" s="190"/>
-      <c r="AL16" s="192"/>
-      <c r="AM16" s="192"/>
-      <c r="AN16" s="192"/>
-      <c r="AO16" s="192"/>
-      <c r="AP16" s="191"/>
+      <c r="AL16" s="191"/>
+      <c r="AM16" s="191"/>
+      <c r="AN16" s="191"/>
+      <c r="AO16" s="191"/>
+      <c r="AP16" s="192"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
@@ -7146,16 +7148,63 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7172,63 +7221,16 @@
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F064B30-715A-4CB4-8694-00B26FEC65FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154DE1F5-DE35-4B80-9C1E-06E563CD8761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" state="hidden" r:id="rId1"/>
@@ -302,11 +302,11 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Project Inquiry</t>
+    <t>Update one data of the project to be managed.</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>Update one data of the project to be managed.</t>
+    <t>Project search</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -919,81 +919,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1110,6 +1035,110 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1117,15 +1146,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1188,33 +1208,100 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,93 +1320,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -1998,42 +1998,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="16384" width="8.875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2041,12 +2041,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2057,42 +2057,42 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
       <c r="H32" s="14"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="J33" s="17"/>
@@ -2102,7 +2102,7 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="J34" s="29"/>
@@ -2115,515 +2115,515 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="27"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -2646,61 +2646,61 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="16384" width="4.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="150" t="s">
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="116">
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="91">
         <v>43404</v>
       </c>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="93"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2708,53 +2708,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="104" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="116" t="str">
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="91" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="93"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -2762,45 +2762,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="93"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -2837,1034 +2837,1190 @@
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="119" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="119" t="s">
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="119" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="120"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="95"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106">
+      <c r="C8" s="144"/>
+      <c r="D8" s="145">
         <v>43404</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="104" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="148"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="110" t="s">
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="151"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="99"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="139"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="99"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="141"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="139"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="99"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="99"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="138"/>
+      <c r="AH12" s="138"/>
+      <c r="AI12" s="139"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="99"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="99"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="141"/>
+      <c r="AD14" s="141"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="139"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="99"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="141"/>
+      <c r="X15" s="141"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="141"/>
+      <c r="AD15" s="141"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="139"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="99"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="141"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="99"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="141"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="139"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="99"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="141"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="141"/>
+      <c r="Y18" s="141"/>
+      <c r="Z18" s="141"/>
+      <c r="AA18" s="141"/>
+      <c r="AB18" s="141"/>
+      <c r="AC18" s="141"/>
+      <c r="AD18" s="141"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="139"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="99"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="141"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="139"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="99"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="141"/>
+      <c r="Y20" s="141"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="141"/>
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="139"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="99"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="141"/>
+      <c r="AC21" s="141"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="142"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="139"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="99"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="141"/>
+      <c r="Y22" s="141"/>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="141"/>
+      <c r="AB22" s="141"/>
+      <c r="AC22" s="141"/>
+      <c r="AD22" s="141"/>
+      <c r="AE22" s="142"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="139"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="102"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="99"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="99"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="141"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="141"/>
+      <c r="AD24" s="141"/>
+      <c r="AE24" s="142"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="139"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="99"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="141"/>
+      <c r="AD25" s="141"/>
+      <c r="AE25" s="142"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="139"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="99"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
+      <c r="AD26" s="141"/>
+      <c r="AE26" s="142"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="139"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="99"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="141"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="141"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="139"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="102"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="99"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="141"/>
+      <c r="AC28" s="141"/>
+      <c r="AD28" s="141"/>
+      <c r="AE28" s="142"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="139"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="102"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="99"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
+      <c r="Y29" s="141"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="141"/>
+      <c r="AC29" s="141"/>
+      <c r="AD29" s="141"/>
+      <c r="AE29" s="142"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="139"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="102"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="99"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="140"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="141"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="141"/>
+      <c r="AB30" s="141"/>
+      <c r="AC30" s="141"/>
+      <c r="AD30" s="141"/>
+      <c r="AE30" s="142"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="139"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="102"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="99"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="141"/>
+      <c r="Y31" s="141"/>
+      <c r="Z31" s="141"/>
+      <c r="AA31" s="141"/>
+      <c r="AB31" s="141"/>
+      <c r="AC31" s="141"/>
+      <c r="AD31" s="141"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="139"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="99"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="142"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="139"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="102"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="99"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="140"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="142"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="139"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -3888,162 +4044,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4063,304 +4063,304 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="50" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="70" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="50" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="70" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="50"/>
-    <col min="257" max="290" width="4.83203125" style="50" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="50"/>
-    <col min="513" max="546" width="4.83203125" style="50" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="50"/>
-    <col min="769" max="802" width="4.83203125" style="50" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="50"/>
-    <col min="1025" max="1058" width="4.83203125" style="50" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="50"/>
-    <col min="1281" max="1314" width="4.83203125" style="50" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="50"/>
-    <col min="1537" max="1570" width="4.83203125" style="50" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="50"/>
-    <col min="1793" max="1826" width="4.83203125" style="50" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="50"/>
-    <col min="2049" max="2082" width="4.83203125" style="50" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="50"/>
-    <col min="2305" max="2338" width="4.83203125" style="50" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="50"/>
-    <col min="2561" max="2594" width="4.83203125" style="50" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="50"/>
-    <col min="2817" max="2850" width="4.83203125" style="50" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="50"/>
-    <col min="3073" max="3106" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="50"/>
-    <col min="3329" max="3362" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="50"/>
-    <col min="3585" max="3618" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="50"/>
-    <col min="3841" max="3874" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="50"/>
-    <col min="4097" max="4130" width="4.83203125" style="50" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="50"/>
-    <col min="4353" max="4386" width="4.83203125" style="50" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="50"/>
-    <col min="4609" max="4642" width="4.83203125" style="50" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="50"/>
-    <col min="4865" max="4898" width="4.83203125" style="50" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="50"/>
-    <col min="5121" max="5154" width="4.83203125" style="50" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="50"/>
-    <col min="5377" max="5410" width="4.83203125" style="50" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="50"/>
-    <col min="5633" max="5666" width="4.83203125" style="50" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="50"/>
-    <col min="5889" max="5922" width="4.83203125" style="50" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="50"/>
-    <col min="6145" max="6178" width="4.83203125" style="50" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="50"/>
-    <col min="6401" max="6434" width="4.83203125" style="50" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="50"/>
-    <col min="6657" max="6690" width="4.83203125" style="50" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="50"/>
-    <col min="6913" max="6946" width="4.83203125" style="50" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="50"/>
-    <col min="7169" max="7202" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="50"/>
-    <col min="7425" max="7458" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="50"/>
-    <col min="7681" max="7714" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="50"/>
-    <col min="7937" max="7970" width="4.83203125" style="50" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="50"/>
-    <col min="8193" max="8226" width="4.83203125" style="50" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="50"/>
-    <col min="8449" max="8482" width="4.83203125" style="50" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="50"/>
-    <col min="8705" max="8738" width="4.83203125" style="50" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="50"/>
-    <col min="8961" max="8994" width="4.83203125" style="50" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="50"/>
-    <col min="9217" max="9250" width="4.83203125" style="50" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="50"/>
-    <col min="9473" max="9506" width="4.83203125" style="50" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="50"/>
-    <col min="9729" max="9762" width="4.83203125" style="50" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="50"/>
-    <col min="9985" max="10018" width="4.83203125" style="50" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="50"/>
-    <col min="10241" max="10274" width="4.83203125" style="50" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="50"/>
-    <col min="10497" max="10530" width="4.83203125" style="50" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="50"/>
-    <col min="10753" max="10786" width="4.83203125" style="50" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="50"/>
-    <col min="11009" max="11042" width="4.83203125" style="50" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="50"/>
-    <col min="11265" max="11298" width="4.83203125" style="50" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="50"/>
-    <col min="11521" max="11554" width="4.83203125" style="50" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="50"/>
-    <col min="11777" max="11810" width="4.83203125" style="50" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="50"/>
-    <col min="12033" max="12066" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="50"/>
-    <col min="12289" max="12322" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="50"/>
-    <col min="12545" max="12578" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="50"/>
-    <col min="12801" max="12834" width="4.83203125" style="50" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="50"/>
-    <col min="13057" max="13090" width="4.83203125" style="50" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="50"/>
-    <col min="13313" max="13346" width="4.83203125" style="50" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="50"/>
-    <col min="13569" max="13602" width="4.83203125" style="50" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="50"/>
-    <col min="13825" max="13858" width="4.83203125" style="50" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="50"/>
-    <col min="14081" max="14114" width="4.83203125" style="50" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="50"/>
-    <col min="14337" max="14370" width="4.83203125" style="50" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="50"/>
-    <col min="14593" max="14626" width="4.83203125" style="50" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="50"/>
-    <col min="14849" max="14882" width="4.83203125" style="50" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="50"/>
-    <col min="15105" max="15138" width="4.83203125" style="50" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="50"/>
-    <col min="15361" max="15394" width="4.83203125" style="50" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="50"/>
-    <col min="15617" max="15650" width="4.83203125" style="50" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="50"/>
-    <col min="15873" max="15906" width="4.83203125" style="50" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="50"/>
-    <col min="16129" max="16162" width="4.83203125" style="50" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="50"/>
+    <col min="1" max="16" width="4.875" style="50" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="70" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="50" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="70" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="50"/>
+    <col min="257" max="290" width="4.875" style="50" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="50"/>
+    <col min="513" max="546" width="4.875" style="50" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="50"/>
+    <col min="769" max="802" width="4.875" style="50" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="50"/>
+    <col min="1025" max="1058" width="4.875" style="50" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="50"/>
+    <col min="1281" max="1314" width="4.875" style="50" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="50"/>
+    <col min="1537" max="1570" width="4.875" style="50" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="50"/>
+    <col min="1793" max="1826" width="4.875" style="50" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="50"/>
+    <col min="2049" max="2082" width="4.875" style="50" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="50"/>
+    <col min="2305" max="2338" width="4.875" style="50" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="50"/>
+    <col min="2561" max="2594" width="4.875" style="50" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="50"/>
+    <col min="2817" max="2850" width="4.875" style="50" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="50"/>
+    <col min="3073" max="3106" width="4.875" style="50" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="50"/>
+    <col min="3329" max="3362" width="4.875" style="50" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="50"/>
+    <col min="3585" max="3618" width="4.875" style="50" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="50"/>
+    <col min="3841" max="3874" width="4.875" style="50" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="50"/>
+    <col min="4097" max="4130" width="4.875" style="50" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="50"/>
+    <col min="4353" max="4386" width="4.875" style="50" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="50"/>
+    <col min="4609" max="4642" width="4.875" style="50" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="50"/>
+    <col min="4865" max="4898" width="4.875" style="50" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="50"/>
+    <col min="5121" max="5154" width="4.875" style="50" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="50"/>
+    <col min="5377" max="5410" width="4.875" style="50" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="50"/>
+    <col min="5633" max="5666" width="4.875" style="50" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="50"/>
+    <col min="5889" max="5922" width="4.875" style="50" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="50"/>
+    <col min="6145" max="6178" width="4.875" style="50" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="50"/>
+    <col min="6401" max="6434" width="4.875" style="50" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="50"/>
+    <col min="6657" max="6690" width="4.875" style="50" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="50"/>
+    <col min="6913" max="6946" width="4.875" style="50" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="50"/>
+    <col min="7169" max="7202" width="4.875" style="50" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="50"/>
+    <col min="7425" max="7458" width="4.875" style="50" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="50"/>
+    <col min="7681" max="7714" width="4.875" style="50" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="50"/>
+    <col min="7937" max="7970" width="4.875" style="50" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="50"/>
+    <col min="8193" max="8226" width="4.875" style="50" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="50"/>
+    <col min="8449" max="8482" width="4.875" style="50" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="50"/>
+    <col min="8705" max="8738" width="4.875" style="50" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="50"/>
+    <col min="8961" max="8994" width="4.875" style="50" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="50"/>
+    <col min="9217" max="9250" width="4.875" style="50" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="50"/>
+    <col min="9473" max="9506" width="4.875" style="50" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="50"/>
+    <col min="9729" max="9762" width="4.875" style="50" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="50"/>
+    <col min="9985" max="10018" width="4.875" style="50" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="50"/>
+    <col min="10241" max="10274" width="4.875" style="50" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="50"/>
+    <col min="10497" max="10530" width="4.875" style="50" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="50"/>
+    <col min="10753" max="10786" width="4.875" style="50" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="50"/>
+    <col min="11009" max="11042" width="4.875" style="50" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="50"/>
+    <col min="11265" max="11298" width="4.875" style="50" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="50"/>
+    <col min="11521" max="11554" width="4.875" style="50" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="50"/>
+    <col min="11777" max="11810" width="4.875" style="50" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="50"/>
+    <col min="12033" max="12066" width="4.875" style="50" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="50"/>
+    <col min="12289" max="12322" width="4.875" style="50" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="50"/>
+    <col min="12545" max="12578" width="4.875" style="50" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="50"/>
+    <col min="12801" max="12834" width="4.875" style="50" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="50"/>
+    <col min="13057" max="13090" width="4.875" style="50" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="50"/>
+    <col min="13313" max="13346" width="4.875" style="50" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="50"/>
+    <col min="13569" max="13602" width="4.875" style="50" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="50"/>
+    <col min="13825" max="13858" width="4.875" style="50" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="50"/>
+    <col min="14081" max="14114" width="4.875" style="50" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="50"/>
+    <col min="14337" max="14370" width="4.875" style="50" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="50"/>
+    <col min="14593" max="14626" width="4.875" style="50" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="50"/>
+    <col min="14849" max="14882" width="4.875" style="50" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="50"/>
+    <col min="15105" max="15138" width="4.875" style="50" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="50"/>
+    <col min="15361" max="15394" width="4.875" style="50" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="50"/>
+    <col min="15617" max="15650" width="4.875" style="50" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="50"/>
+    <col min="15873" max="15906" width="4.875" style="50" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="50"/>
+    <col min="16129" max="16162" width="4.875" style="50" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="171" t="str">
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="180" t="s">
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="181"/>
-      <c r="AC1" s="185" t="str">
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="156">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="158"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="39"/>
     </row>
-    <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="180" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="185" t="str">
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="158"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:38" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="185" t="str">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="158"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -4397,7 +4397,7 @@
       <c r="AH4" s="40"/>
       <c r="AI4" s="40"/>
     </row>
-    <row r="5" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -4436,7 +4436,7 @@
       <c r="AH5" s="40"/>
       <c r="AI5" s="40"/>
     </row>
-    <row r="6" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4473,7 +4473,7 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="40"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="33" t="s">
         <v>37</v>
@@ -4512,7 +4512,7 @@
       <c r="AH7" s="48"/>
       <c r="AI7" s="49"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -4549,7 +4549,7 @@
       <c r="AH8" s="52"/>
       <c r="AI8" s="49"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -4586,7 +4586,7 @@
       <c r="AH9" s="53"/>
       <c r="AI9" s="35"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4623,7 +4623,7 @@
       <c r="AH10" s="48"/>
       <c r="AI10" s="49"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -4660,7 +4660,7 @@
       <c r="AH11" s="48"/>
       <c r="AI11" s="49"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -4697,7 +4697,7 @@
       <c r="AH12" s="48"/>
       <c r="AI12" s="49"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -4734,7 +4734,7 @@
       <c r="AH13" s="48"/>
       <c r="AI13" s="49"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -4771,7 +4771,7 @@
       <c r="AH14" s="48"/>
       <c r="AI14" s="49"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="54"/>
       <c r="C15" s="44"/>
@@ -4808,7 +4808,7 @@
       <c r="AH15" s="48"/>
       <c r="AI15" s="49"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="40"/>
       <c r="C16" s="35"/>
@@ -4845,7 +4845,7 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="49"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="40"/>
       <c r="C17" s="35"/>
@@ -4882,7 +4882,7 @@
       <c r="AH17" s="48"/>
       <c r="AI17" s="49"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="40"/>
       <c r="C18" s="35"/>
@@ -4919,7 +4919,7 @@
       <c r="AH18" s="48"/>
       <c r="AI18" s="49"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="40"/>
       <c r="C19" s="35"/>
@@ -4956,7 +4956,7 @@
       <c r="AH19" s="48"/>
       <c r="AI19" s="49"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="40"/>
       <c r="C20" s="35"/>
@@ -4993,7 +4993,7 @@
       <c r="AH20" s="48"/>
       <c r="AI20" s="49"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="40"/>
       <c r="C21" s="35"/>
@@ -5030,7 +5030,7 @@
       <c r="AH21" s="48"/>
       <c r="AI21" s="49"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="40"/>
       <c r="C22" s="35"/>
@@ -5067,7 +5067,7 @@
       <c r="AH22" s="48"/>
       <c r="AI22" s="49"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="54"/>
       <c r="C23" s="44"/>
@@ -5104,7 +5104,7 @@
       <c r="AH23" s="48"/>
       <c r="AI23" s="49"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="40"/>
       <c r="C24" s="35"/>
@@ -5141,7 +5141,7 @@
       <c r="AH24" s="48"/>
       <c r="AI24" s="49"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="40"/>
       <c r="C25" s="35"/>
@@ -5178,7 +5178,7 @@
       <c r="AH25" s="48"/>
       <c r="AI25" s="49"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="40"/>
       <c r="C26" s="35"/>
@@ -5215,7 +5215,7 @@
       <c r="AH26" s="48"/>
       <c r="AI26" s="49"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="40"/>
       <c r="C27" s="35"/>
@@ -5252,7 +5252,7 @@
       <c r="AH27" s="48"/>
       <c r="AI27" s="49"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="40"/>
       <c r="C28" s="35"/>
@@ -5289,7 +5289,7 @@
       <c r="AH28" s="48"/>
       <c r="AI28" s="49"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="40"/>
       <c r="C29" s="35"/>
@@ -5326,7 +5326,7 @@
       <c r="AH29" s="48"/>
       <c r="AI29" s="49"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -5363,7 +5363,7 @@
       <c r="AH30" s="58"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
       <c r="B31" s="40"/>
       <c r="C31" s="41"/>
@@ -5400,7 +5400,7 @@
       <c r="AH31" s="58"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55"/>
       <c r="B32" s="62"/>
       <c r="C32" s="35"/>
@@ -5437,7 +5437,7 @@
       <c r="AH32" s="58"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55"/>
       <c r="B33" s="62"/>
       <c r="C33" s="35"/>
@@ -5474,7 +5474,7 @@
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55"/>
       <c r="B34" s="62"/>
       <c r="C34" s="35"/>
@@ -5511,7 +5511,7 @@
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="62"/>
       <c r="C35" s="35"/>
@@ -5548,7 +5548,7 @@
       <c r="AH35" s="58"/>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -5818,14 +5818,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5835,6 +5827,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5854,558 +5854,558 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="33"/>
+    <col min="1" max="16384" width="4.875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159" t="str">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="199" t="str">
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="156" t="s">
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="185" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="156">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="158"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
       <c r="AL1" s="31"/>
     </row>
-    <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="159" t="str">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="156" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="185" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="158"/>
       <c r="AJ2" s="31"/>
       <c r="AK2" s="31"/>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+    <row r="3" spans="1:42" s="32" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="158"/>
-      <c r="AC3" s="185" t="str">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="156" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="158"/>
       <c r="AJ3" s="31"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="31"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="226" t="s">
+    <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="208" t="s">
+      <c r="D7" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="209"/>
-      <c r="F7" s="208" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="208" t="s">
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="208" t="s">
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="209"/>
-      <c r="T7" s="208" t="s">
+      <c r="S7" s="195"/>
+      <c r="T7" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="208" t="s">
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="212"/>
-      <c r="AF7" s="212"/>
-      <c r="AG7" s="209"/>
-      <c r="AH7" s="208" t="s">
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="194"/>
+      <c r="AG7" s="195"/>
+      <c r="AH7" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="AI7" s="212"/>
-      <c r="AJ7" s="209"/>
-      <c r="AK7" s="208" t="s">
+      <c r="AI7" s="194"/>
+      <c r="AJ7" s="195"/>
+      <c r="AK7" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="AL7" s="212"/>
-      <c r="AM7" s="212"/>
-      <c r="AN7" s="212"/>
-      <c r="AO7" s="212"/>
-      <c r="AP7" s="209"/>
-    </row>
-    <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="227"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
-      <c r="P8" s="213"/>
-      <c r="Q8" s="211"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="213"/>
-      <c r="V8" s="213"/>
-      <c r="W8" s="213"/>
-      <c r="X8" s="213"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="213"/>
-      <c r="AB8" s="213"/>
-      <c r="AC8" s="213"/>
-      <c r="AD8" s="213"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="213"/>
-      <c r="AG8" s="211"/>
-      <c r="AH8" s="210"/>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="211"/>
-      <c r="AK8" s="210"/>
-      <c r="AL8" s="213"/>
-      <c r="AM8" s="213"/>
-      <c r="AN8" s="213"/>
-      <c r="AO8" s="213"/>
-      <c r="AP8" s="211"/>
-    </row>
-    <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL7" s="194"/>
+      <c r="AM7" s="194"/>
+      <c r="AN7" s="194"/>
+      <c r="AO7" s="194"/>
+      <c r="AP7" s="195"/>
+    </row>
+    <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="200"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
+      <c r="N8" s="197"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="198"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="198"/>
+      <c r="AH8" s="196"/>
+      <c r="AI8" s="197"/>
+      <c r="AJ8" s="198"/>
+      <c r="AK8" s="196"/>
+      <c r="AL8" s="197"/>
+      <c r="AM8" s="197"/>
+      <c r="AN8" s="197"/>
+      <c r="AO8" s="197"/>
+      <c r="AP8" s="198"/>
+    </row>
+    <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="34">
         <v>1</v>
       </c>
-      <c r="D9" s="223" t="s">
+      <c r="D9" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="223" t="s">
+      <c r="E9" s="202"/>
+      <c r="F9" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="224"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="223" t="s">
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="225"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="202"/>
       <c r="R9" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="192"/>
+      <c r="S9" s="191"/>
       <c r="T9" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="191"/>
       <c r="Z9" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="192"/>
+      <c r="AF9" s="192"/>
+      <c r="AG9" s="191"/>
       <c r="AH9" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="191"/>
-      <c r="AJ9" s="192"/>
+      <c r="AI9" s="192"/>
+      <c r="AJ9" s="191"/>
       <c r="AK9" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="AL9" s="191"/>
-      <c r="AM9" s="191"/>
-      <c r="AN9" s="191"/>
-      <c r="AO9" s="191"/>
-      <c r="AP9" s="192"/>
-    </row>
-    <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL9" s="192"/>
+      <c r="AM9" s="192"/>
+      <c r="AN9" s="192"/>
+      <c r="AO9" s="192"/>
+      <c r="AP9" s="191"/>
+    </row>
+    <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="195"/>
-      <c r="M10" s="195"/>
-      <c r="N10" s="195"/>
-      <c r="O10" s="195"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="194"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="223"/>
       <c r="R10" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="192"/>
+      <c r="S10" s="191"/>
       <c r="T10" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="191"/>
       <c r="Z10" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="191"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="191"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="192"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="192"/>
+      <c r="AF10" s="192"/>
+      <c r="AG10" s="191"/>
       <c r="AH10" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="191"/>
-      <c r="AJ10" s="192"/>
+      <c r="AI10" s="192"/>
+      <c r="AJ10" s="191"/>
       <c r="AK10" s="190"/>
-      <c r="AL10" s="191"/>
-      <c r="AM10" s="191"/>
-      <c r="AN10" s="191"/>
-      <c r="AO10" s="191"/>
-      <c r="AP10" s="192"/>
-    </row>
-    <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL10" s="192"/>
+      <c r="AM10" s="192"/>
+      <c r="AN10" s="192"/>
+      <c r="AO10" s="192"/>
+      <c r="AP10" s="191"/>
+    </row>
+    <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="34">
         <v>3</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="195"/>
-      <c r="N11" s="195"/>
-      <c r="O11" s="195"/>
-      <c r="P11" s="195"/>
-      <c r="Q11" s="194"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="223"/>
       <c r="R11" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="S11" s="192"/>
+      <c r="S11" s="191"/>
       <c r="T11" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="191"/>
       <c r="Z11" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
-      <c r="AC11" s="191"/>
-      <c r="AD11" s="191"/>
-      <c r="AE11" s="191"/>
-      <c r="AF11" s="191"/>
-      <c r="AG11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
+      <c r="AG11" s="191"/>
       <c r="AH11" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="191"/>
-      <c r="AJ11" s="192"/>
+      <c r="AI11" s="192"/>
+      <c r="AJ11" s="191"/>
       <c r="AK11" s="190"/>
-      <c r="AL11" s="191"/>
-      <c r="AM11" s="191"/>
-      <c r="AN11" s="191"/>
-      <c r="AO11" s="191"/>
-      <c r="AP11" s="192"/>
-    </row>
-    <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL11" s="192"/>
+      <c r="AM11" s="192"/>
+      <c r="AN11" s="192"/>
+      <c r="AO11" s="192"/>
+      <c r="AP11" s="191"/>
+    </row>
+    <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="34">
         <v>4</v>
       </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="198"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="197"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="227"/>
+      <c r="P12" s="227"/>
+      <c r="Q12" s="226"/>
       <c r="R12" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="192"/>
+      <c r="S12" s="191"/>
       <c r="T12" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="191"/>
       <c r="Z12" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="191"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="191"/>
       <c r="AH12" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI12" s="191"/>
-      <c r="AJ12" s="192"/>
+      <c r="AI12" s="192"/>
+      <c r="AJ12" s="191"/>
       <c r="AK12" s="190"/>
-      <c r="AL12" s="191"/>
-      <c r="AM12" s="191"/>
-      <c r="AN12" s="191"/>
-      <c r="AO12" s="191"/>
-      <c r="AP12" s="192"/>
-    </row>
-    <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="192"/>
+      <c r="AM12" s="192"/>
+      <c r="AN12" s="192"/>
+      <c r="AO12" s="192"/>
+      <c r="AP12" s="191"/>
+    </row>
+    <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="34">
         <v>5</v>
       </c>
-      <c r="D13" s="223" t="s">
+      <c r="D13" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="225"/>
-      <c r="F13" s="223" t="s">
+      <c r="E13" s="202"/>
+      <c r="F13" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="223" t="s">
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="225"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="202"/>
       <c r="R13" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="192"/>
+      <c r="S13" s="191"/>
       <c r="T13" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="191"/>
       <c r="Z13" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="191"/>
-      <c r="AB13" s="191"/>
-      <c r="AC13" s="191"/>
-      <c r="AD13" s="191"/>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="191"/>
-      <c r="AG13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
+      <c r="AG13" s="191"/>
       <c r="AH13" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI13" s="191"/>
-      <c r="AJ13" s="192"/>
+      <c r="AI13" s="192"/>
+      <c r="AJ13" s="191"/>
       <c r="AK13" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" s="191"/>
-      <c r="AM13" s="191"/>
-      <c r="AN13" s="191"/>
-      <c r="AO13" s="191"/>
-      <c r="AP13" s="192"/>
-    </row>
-    <row r="14" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="192"/>
+      <c r="AN13" s="192"/>
+      <c r="AO13" s="192"/>
+      <c r="AP13" s="191"/>
+    </row>
+    <row r="14" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="34">
         <v>6</v>
       </c>
@@ -6426,30 +6426,30 @@
       <c r="R14" s="190" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="192"/>
+      <c r="S14" s="191"/>
       <c r="T14" s="190" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="192"/>
+        <v>82</v>
+      </c>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
+      <c r="Y14" s="191"/>
       <c r="Z14" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="191"/>
-      <c r="AD14" s="191"/>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="192"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="192"/>
+      <c r="AE14" s="192"/>
+      <c r="AF14" s="192"/>
+      <c r="AG14" s="191"/>
       <c r="AH14" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI14" s="191"/>
-      <c r="AJ14" s="192"/>
+      <c r="AI14" s="192"/>
+      <c r="AJ14" s="191"/>
       <c r="AK14" s="81"/>
       <c r="AL14" s="82"/>
       <c r="AM14" s="82"/>
@@ -6457,7 +6457,7 @@
       <c r="AO14" s="82"/>
       <c r="AP14" s="83"/>
     </row>
-    <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="34">
         <v>7</v>
       </c>
@@ -6478,98 +6478,98 @@
       <c r="R15" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="S15" s="192"/>
+      <c r="S15" s="191"/>
       <c r="T15" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="191"/>
       <c r="Z15" s="190" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="191"/>
-      <c r="AD15" s="191"/>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="191"/>
-      <c r="AG15" s="192"/>
+        <v>81</v>
+      </c>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="192"/>
+      <c r="AF15" s="192"/>
+      <c r="AG15" s="191"/>
       <c r="AH15" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AI15" s="191"/>
-      <c r="AJ15" s="192"/>
+      <c r="AI15" s="192"/>
+      <c r="AJ15" s="191"/>
       <c r="AK15" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL15" s="191"/>
-      <c r="AM15" s="191"/>
-      <c r="AN15" s="191"/>
-      <c r="AO15" s="191"/>
-      <c r="AP15" s="192"/>
-    </row>
-    <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL15" s="192"/>
+      <c r="AM15" s="192"/>
+      <c r="AN15" s="192"/>
+      <c r="AO15" s="192"/>
+      <c r="AP15" s="191"/>
+    </row>
+    <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="34">
         <v>8</v>
       </c>
       <c r="D16" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="192"/>
+      <c r="E16" s="191"/>
       <c r="F16" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="191"/>
       <c r="K16" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="191"/>
-      <c r="M16" s="191"/>
-      <c r="N16" s="191"/>
-      <c r="O16" s="191"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="191"/>
       <c r="R16" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="S16" s="192"/>
+      <c r="S16" s="191"/>
       <c r="T16" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="191"/>
       <c r="Z16" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
-      <c r="AC16" s="191"/>
-      <c r="AD16" s="191"/>
-      <c r="AE16" s="191"/>
-      <c r="AF16" s="191"/>
-      <c r="AG16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
+      <c r="AF16" s="192"/>
+      <c r="AG16" s="191"/>
       <c r="AH16" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="AI16" s="191"/>
-      <c r="AJ16" s="192"/>
+      <c r="AI16" s="192"/>
+      <c r="AJ16" s="191"/>
       <c r="AK16" s="190"/>
-      <c r="AL16" s="191"/>
-      <c r="AM16" s="191"/>
-      <c r="AN16" s="191"/>
-      <c r="AO16" s="191"/>
-      <c r="AP16" s="192"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AL16" s="192"/>
+      <c r="AM16" s="192"/>
+      <c r="AN16" s="192"/>
+      <c r="AO16" s="192"/>
+      <c r="AP16" s="191"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -6613,7 +6613,7 @@
       <c r="AO17" s="35"/>
       <c r="AP17" s="35"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -6654,7 +6654,7 @@
       <c r="AM18" s="38"/>
       <c r="AN18" s="38"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -6695,7 +6695,7 @@
       <c r="AM19" s="38"/>
       <c r="AN19" s="38"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -6736,7 +6736,7 @@
       <c r="AM20" s="38"/>
       <c r="AN20" s="38"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -6777,7 +6777,7 @@
       <c r="AM21" s="38"/>
       <c r="AN21" s="38"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -6818,7 +6818,7 @@
       <c r="AM22" s="38"/>
       <c r="AN22" s="38"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6859,7 +6859,7 @@
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -6900,7 +6900,7 @@
       <c r="AM24" s="38"/>
       <c r="AN24" s="38"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -6941,7 +6941,7 @@
       <c r="AM25" s="38"/>
       <c r="AN25" s="38"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -6982,7 +6982,7 @@
       <c r="AM26" s="38"/>
       <c r="AN26" s="38"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -7023,7 +7023,7 @@
       <c r="AM27" s="38"/>
       <c r="AN27" s="38"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -7064,7 +7064,7 @@
       <c r="AM28" s="38"/>
       <c r="AN28" s="38"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -7105,7 +7105,7 @@
       <c r="AM29" s="38"/>
       <c r="AN29" s="38"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -7148,11 +7148,68 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
@@ -7169,72 +7226,15 @@
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="K7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488B80D-00A5-4EFE-B344-5CD8D84A0261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC685E77-61E9-470B-BEBD-C424E2DBE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3780" windowWidth="24000" windowHeight="10260" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="390" windowWidth="20220" windowHeight="12150" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -98,16 +98,10 @@
     <t>Logs out the currently logged-in user.</t>
   </si>
   <si>
-    <t>WA10103</t>
-  </si>
-  <si>
     <t>TOP Menu</t>
   </si>
   <si>
     <t>Displays a list of menus that can be selected by the logged-in user.</t>
-  </si>
-  <si>
-    <t>WA10104</t>
   </si>
   <si>
     <t>Generic error</t>
@@ -319,6 +313,33 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10301</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10302</t>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Provide functionality commonly used in projects.</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Available onry to project managers and members responsible for the project being updated</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Change the message for each error description.</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -888,259 +909,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1158,6 +931,171 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1167,49 +1105,132 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1931,7 +1952,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,12 +1964,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="76">
+      <c r="I25" s="86">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43404</v>
       </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
@@ -2545,55 +2566,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="103" t="s">
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="87">
         <v>43404</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -2601,53 +2622,53 @@
       <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="159" t="str">
+      <c r="A2" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="101" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="87" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -2655,1109 +2676,1265 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="A3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="162" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-    </row>
-    <row r="6" spans="1:40" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="163"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="164"/>
-    </row>
-    <row r="7" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="138" t="s">
+    <row r="5" spans="1:40" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+    </row>
+    <row r="6" spans="1:40" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="79"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+    </row>
+    <row r="7" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="141" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="141" t="s">
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="141" t="s">
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="94"/>
+    </row>
+    <row r="8" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77">
+        <v>1</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="141" t="s">
+      <c r="H8" s="145"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="143"/>
-    </row>
-    <row r="8" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="144">
-        <v>1</v>
-      </c>
-      <c r="B8" s="145" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="168">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="147" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="150" t="s">
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="152"/>
-    </row>
-    <row r="9" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="180"/>
-    </row>
-    <row r="10" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="171"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="178"/>
-      <c r="AG10" s="179"/>
-      <c r="AH10" s="179"/>
-      <c r="AI10" s="180"/>
-    </row>
-    <row r="11" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="171"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="182"/>
-      <c r="T11" s="182"/>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="179"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="180"/>
-    </row>
-    <row r="12" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="171"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="179"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="180"/>
-    </row>
-    <row r="13" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="171"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
-      <c r="V13" s="182"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="182"/>
-      <c r="AA13" s="182"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="182"/>
-      <c r="AD13" s="182"/>
-      <c r="AE13" s="183"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="180"/>
-    </row>
-    <row r="14" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="171"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
-      <c r="S14" s="182"/>
-      <c r="T14" s="182"/>
-      <c r="U14" s="182"/>
-      <c r="V14" s="182"/>
-      <c r="W14" s="182"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="182"/>
-      <c r="AA14" s="182"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="182"/>
-      <c r="AD14" s="182"/>
-      <c r="AE14" s="183"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="179"/>
-      <c r="AH14" s="179"/>
-      <c r="AI14" s="180"/>
-    </row>
-    <row r="15" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="171"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="182"/>
-      <c r="V15" s="182"/>
-      <c r="W15" s="182"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="178"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="180"/>
-    </row>
-    <row r="16" spans="1:40" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="171"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="182"/>
-      <c r="AD16" s="182"/>
-      <c r="AE16" s="183"/>
-      <c r="AF16" s="178"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="180"/>
-    </row>
-    <row r="17" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="171"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="183"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="180"/>
-    </row>
-    <row r="18" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="171"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="178"/>
-      <c r="AG18" s="179"/>
-      <c r="AH18" s="179"/>
-      <c r="AI18" s="180"/>
-    </row>
-    <row r="19" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="171"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="182"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="182"/>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="182"/>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="182"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="183"/>
-      <c r="AF19" s="178"/>
-      <c r="AG19" s="179"/>
-      <c r="AH19" s="179"/>
-      <c r="AI19" s="180"/>
-    </row>
-    <row r="20" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="171"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="183"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="179"/>
-      <c r="AH20" s="179"/>
-      <c r="AI20" s="180"/>
-    </row>
-    <row r="21" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="171"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
-      <c r="AD21" s="182"/>
-      <c r="AE21" s="183"/>
-      <c r="AF21" s="178"/>
-      <c r="AG21" s="179"/>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="180"/>
-    </row>
-    <row r="22" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="182"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="182"/>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="182"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="182"/>
-      <c r="AD22" s="182"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="179"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="180"/>
-    </row>
-    <row r="23" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="171"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="182"/>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="180"/>
-    </row>
-    <row r="24" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="182"/>
-      <c r="T24" s="182"/>
-      <c r="U24" s="182"/>
-      <c r="V24" s="182"/>
-      <c r="W24" s="182"/>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="182"/>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="182"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="182"/>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="178"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="180"/>
-    </row>
-    <row r="25" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="171"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="182"/>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
-      <c r="U25" s="182"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="182"/>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="182"/>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="182"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="182"/>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="178"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="180"/>
-    </row>
-    <row r="26" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="171"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="182"/>
-      <c r="S26" s="182"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="182"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="182"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="183"/>
-      <c r="AF26" s="178"/>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="180"/>
-    </row>
-    <row r="27" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="179"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="182"/>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="178"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="180"/>
-    </row>
-    <row r="28" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="183"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="180"/>
-    </row>
-    <row r="29" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="171"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="183"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="180"/>
-    </row>
-    <row r="30" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="171"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="183"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="180"/>
-    </row>
-    <row r="31" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="171"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="183"/>
-      <c r="AF31" s="178"/>
-      <c r="AG31" s="179"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="180"/>
-    </row>
-    <row r="32" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="171"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="183"/>
-      <c r="AF32" s="178"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="180"/>
-    </row>
-    <row r="33" spans="1:35" s="167" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="183"/>
-      <c r="AF33" s="178"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="149"/>
+    </row>
+    <row r="9" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="84"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
+    </row>
+    <row r="10" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="84"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
+    </row>
+    <row r="11" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="84"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
+    </row>
+    <row r="12" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="84"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
+    </row>
+    <row r="13" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="84"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
+    </row>
+    <row r="14" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="84"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
+    </row>
+    <row r="15" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="84"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
+    </row>
+    <row r="16" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
+    </row>
+    <row r="17" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="84"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="133"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
+    </row>
+    <row r="18" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="84"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
+    </row>
+    <row r="19" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="84"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="133"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
+    </row>
+    <row r="20" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="84"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="133"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
+    </row>
+    <row r="21" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="84"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
+    </row>
+    <row r="22" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="84"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
+    </row>
+    <row r="23" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="84"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="133"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
+    </row>
+    <row r="24" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="84"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="133"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
+    </row>
+    <row r="25" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="84"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="133"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
+    </row>
+    <row r="26" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="84"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="133"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
+    </row>
+    <row r="27" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="84"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="133"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
+    </row>
+    <row r="28" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="84"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="133"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
+    </row>
+    <row r="29" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="84"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="133"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
+    </row>
+    <row r="30" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="84"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="133"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
+    </row>
+    <row r="31" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="84"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="133"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
+    </row>
+    <row r="32" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="84"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="133"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
+    </row>
+    <row r="33" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="84"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="133"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K34" s="185"/>
+      <c r="K34" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -3781,162 +3958,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4092,163 +4113,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="str">
+      <c r="A1" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="91" t="str">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="113" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="103" t="str">
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="100">
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="25"/>
     </row>
     <row r="2" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="str">
+      <c r="A2" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="103" t="str">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="str">
+      <c r="A3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="103" t="str">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="100" t="str">
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -4308,7 +4329,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
@@ -5711,14 +5732,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5728,6 +5741,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5753,163 +5774,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="str">
+      <c r="A1" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="117" t="str">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="103" t="str">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="100">
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="154">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
     </row>
     <row r="2" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="str">
+      <c r="A2" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="103" t="str">
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80" t="str">
+      <c r="A3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="W3" s="124"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="103" t="str">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="122" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="100" t="str">
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="154" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -5921,546 +5942,554 @@
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="126" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="126" t="s">
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="127"/>
-      <c r="T7" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="126" t="s">
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="162"/>
+      <c r="T7" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="126" t="s">
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="126" t="s">
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="127"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="162"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="136"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="129"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="129"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="129"/>
-      <c r="AK8" s="128"/>
-      <c r="AL8" s="131"/>
-      <c r="AM8" s="131"/>
-      <c r="AN8" s="131"/>
-      <c r="AO8" s="131"/>
-      <c r="AP8" s="129"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="164"/>
+      <c r="AM8" s="164"/>
+      <c r="AN8" s="164"/>
+      <c r="AO8" s="164"/>
+      <c r="AP8" s="165"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="132" t="s">
+      <c r="E9" s="169"/>
+      <c r="F9" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="132" t="s">
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="108" t="s">
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="110"/>
-      <c r="T9" s="108" t="s">
+      <c r="S9" s="158"/>
+      <c r="T9" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="108" t="s">
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="108" t="s">
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="159"/>
+      <c r="AE9" s="159"/>
+      <c r="AF9" s="159"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="108" t="s">
+      <c r="AI9" s="159"/>
+      <c r="AJ9" s="158"/>
+      <c r="AK9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="110"/>
+      <c r="AL9" s="159"/>
+      <c r="AM9" s="159"/>
+      <c r="AN9" s="159"/>
+      <c r="AO9" s="159"/>
+      <c r="AP9" s="158"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="108" t="s">
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="110"/>
-      <c r="T10" s="108" t="s">
+      <c r="S10" s="158"/>
+      <c r="T10" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="108" t="s">
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="108" t="s">
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="159"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="110"/>
-    </row>
-    <row r="11" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="159"/>
+      <c r="AM10" s="159"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="158"/>
+    </row>
+    <row r="11" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="110"/>
-      <c r="T11" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="108" t="s">
+      <c r="D11" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="169"/>
+      <c r="F11" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="157" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="158"/>
+      <c r="T11" s="157" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="159"/>
+      <c r="AF11" s="159"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="110"/>
-    </row>
-    <row r="12" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI11" s="159"/>
+      <c r="AJ11" s="158"/>
+      <c r="AK11" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="159"/>
+      <c r="AM11" s="159"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="158"/>
+    </row>
+    <row r="12" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="20">
         <v>4</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="110"/>
-      <c r="T12" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="108" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="158"/>
+      <c r="T12" s="157" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="157" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="159"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="159"/>
+      <c r="AE12" s="159"/>
+      <c r="AF12" s="159"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="110"/>
-    </row>
-    <row r="13" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="158"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="69"/>
+    </row>
+    <row r="13" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20">
         <v>5</v>
       </c>
-      <c r="D13" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="110"/>
-      <c r="T13" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="108" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="158"/>
+      <c r="T13" s="157" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="159"/>
+      <c r="AC13" s="159"/>
+      <c r="AD13" s="159"/>
+      <c r="AE13" s="159"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="110"/>
-    </row>
-    <row r="14" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="158"/>
+      <c r="AK13" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL13" s="159"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="159"/>
+      <c r="AO13" s="159"/>
+      <c r="AP13" s="158"/>
+    </row>
+    <row r="14" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20">
         <v>6</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="110"/>
-      <c r="T14" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="108" t="s">
+      <c r="D14" s="180" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="181"/>
+      <c r="F14" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="157" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="158"/>
+      <c r="T14" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="159"/>
+      <c r="AB14" s="159"/>
+      <c r="AC14" s="159"/>
+      <c r="AD14" s="159"/>
+      <c r="AE14" s="159"/>
+      <c r="AF14" s="159"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="69"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="157"/>
+      <c r="AL14" s="159"/>
+      <c r="AM14" s="159"/>
+      <c r="AN14" s="159"/>
+      <c r="AO14" s="159"/>
+      <c r="AP14" s="158"/>
     </row>
     <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="20">
         <v>7</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="110"/>
-      <c r="T15" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="108" t="s">
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="158"/>
+      <c r="T15" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="159"/>
+      <c r="Y15" s="158"/>
+      <c r="Z15" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="159"/>
+      <c r="AB15" s="159"/>
+      <c r="AC15" s="159"/>
+      <c r="AD15" s="159"/>
+      <c r="AE15" s="159"/>
+      <c r="AF15" s="159"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="110"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="158"/>
+      <c r="AK15" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL15" s="159"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="159"/>
+      <c r="AO15" s="159"/>
+      <c r="AP15" s="158"/>
     </row>
     <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="20">
         <v>8</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="108" t="s">
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="108" t="s">
+      <c r="S16" s="158"/>
+      <c r="T16" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="108" t="s">
+      <c r="U16" s="159"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="159"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="110"/>
-      <c r="T16" s="108" t="s">
+      <c r="AA16" s="159"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="159"/>
+      <c r="AD16" s="159"/>
+      <c r="AE16" s="159"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="108"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="110"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="158"/>
+      <c r="AK16" s="157"/>
+      <c r="AL16" s="159"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="159"/>
+      <c r="AO16" s="159"/>
+      <c r="AP16" s="158"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
@@ -7041,27 +7070,52 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK13:AP13"/>
     <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="Z16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7078,52 +7132,27 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="Z11:AG11"/>
     <mergeCell ref="AH11:AJ11"/>
     <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="K7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC685E77-61E9-470B-BEBD-C424E2DBE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B51EFB-749A-4872-997F-E6B0F38E701E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="390" windowWidth="20220" windowHeight="12150" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -342,6 +340,31 @@
     <t>Change the message for each error description.</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>Version 1.1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Reviewed TOP menu and generic errors to be common classification.
+Revised the tail line of the update process to meet the requirements for the authority to use (unimplemented functions were added with a callout).</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1. List of system functions</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
@@ -351,7 +374,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -477,6 +500,12 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -730,7 +759,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,9 +941,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -931,13 +957,91 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1054,87 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1147,28 +1170,82 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,59 +1254,14 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1952,7 +1984,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,12 +1996,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="86">
+      <c r="I25" s="84">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
-        <v>43404</v>
-      </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+        <v>44841</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
@@ -2566,55 +2598,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="113" t="s">
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="122" t="s">
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="87">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="112">
         <v>43404</v>
       </c>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="114"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -2622,53 +2654,53 @@
       <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="101" t="str">
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="126" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="87" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="112">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+        <v>44841</v>
+      </c>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="114"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -2676,1265 +2708,1123 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="147"/>
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="114"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
       <c r="AM3" s="17"/>
       <c r="AN3" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="78" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="79" t="s">
+    <row r="5" spans="1:40" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-    </row>
-    <row r="6" spans="1:40" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="79"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-    </row>
-    <row r="7" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+    </row>
+    <row r="6" spans="1:40" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="78"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="79"/>
+      <c r="AI6" s="79"/>
+    </row>
+    <row r="7" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="92" t="s">
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="92" t="s">
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="94"/>
-    </row>
-    <row r="8" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77">
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="119"/>
+    </row>
+    <row r="8" spans="1:40" s="82" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="184">
         <v>1</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100">
         <v>43404</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144" t="s">
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="147" t="s">
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="149"/>
-    </row>
-    <row r="9" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="135"/>
-    </row>
-    <row r="10" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="135"/>
-    </row>
-    <row r="11" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="133"/>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="135"/>
-    </row>
-    <row r="12" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="133"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
-    </row>
-    <row r="13" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="133"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="135"/>
-    </row>
-    <row r="14" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="133"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="135"/>
-    </row>
-    <row r="15" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="133"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="135"/>
-    </row>
-    <row r="16" spans="1:40" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="133"/>
-      <c r="AG16" s="134"/>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="135"/>
-    </row>
-    <row r="17" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="133"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="135"/>
-    </row>
-    <row r="18" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="133"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="135"/>
-    </row>
-    <row r="19" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="133"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
-    </row>
-    <row r="20" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="84"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="133"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="135"/>
-    </row>
-    <row r="21" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="133"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="135"/>
-    </row>
-    <row r="22" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="133"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="134"/>
-      <c r="AI22" s="135"/>
-    </row>
-    <row r="23" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="133"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="135"/>
-    </row>
-    <row r="24" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="136"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="135"/>
-    </row>
-    <row r="25" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="133"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="134"/>
-      <c r="AI25" s="135"/>
-    </row>
-    <row r="26" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="133"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
-    </row>
-    <row r="27" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="133"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="135"/>
-    </row>
-    <row r="28" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="84"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="133"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="135"/>
-    </row>
-    <row r="29" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="133"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="135"/>
-    </row>
-    <row r="30" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="84"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="133"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="135"/>
-    </row>
-    <row r="31" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="133"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="135"/>
-    </row>
-    <row r="32" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="84"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="133"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
-    </row>
-    <row r="33" spans="1:35" s="83" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="133"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="135"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="108"/>
+    </row>
+    <row r="9" spans="1:40" s="82" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <v>2</v>
+      </c>
+      <c r="B9" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="186"/>
+      <c r="D9" s="87">
+        <v>44841</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
+    </row>
+    <row r="10" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
+    </row>
+    <row r="11" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
+    </row>
+    <row r="12" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
+    </row>
+    <row r="13" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
+    </row>
+    <row r="14" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
+    </row>
+    <row r="15" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
+    </row>
+    <row r="16" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
+    </row>
+    <row r="17" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
+    </row>
+    <row r="18" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
+    </row>
+    <row r="19" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
+    </row>
+    <row r="20" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
+    </row>
+    <row r="21" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
+    </row>
+    <row r="22" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
+    </row>
+    <row r="23" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
+    </row>
+    <row r="24" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
+    </row>
+    <row r="25" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
+    </row>
+    <row r="26" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
+    </row>
+    <row r="27" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
+    </row>
+    <row r="28" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
+    </row>
+    <row r="29" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
+    </row>
+    <row r="30" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
+    </row>
+    <row r="31" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
+    </row>
+    <row r="32" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
+    </row>
+    <row r="33" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K34" s="85"/>
+      <c r="K34" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -3958,6 +3848,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -4113,163 +4159,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="113" t="str">
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="25"/>
     </row>
     <row r="2" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="122" t="str">
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="154" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="152">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+        <v>44841</v>
+      </c>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="122" t="str">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="154" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -5732,6 +5778,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -5741,14 +5795,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -5774,446 +5820,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="str">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="104" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="171" t="str">
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="164" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="95" t="s">
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="122" t="str">
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="154">
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="152">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="154"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
     </row>
     <row r="2" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98" t="str">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="95" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="122" t="str">
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="154" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="152">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
+        <v>44841</v>
+      </c>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="154"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="str">
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="122" t="str">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="154" t="str">
+      <c r="AD3" s="148"/>
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="152" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="160" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="160" t="s">
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="160" t="s">
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="162"/>
-      <c r="T7" s="160" t="s">
+      <c r="S7" s="174"/>
+      <c r="T7" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="160" t="s">
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="160" t="s">
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="162"/>
-      <c r="AK7" s="160" t="s">
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="AL7" s="161"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="161"/>
-      <c r="AO7" s="161"/>
-      <c r="AP7" s="162"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="174"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="167"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="163"/>
-      <c r="AL8" s="164"/>
-      <c r="AM8" s="164"/>
-      <c r="AN8" s="164"/>
-      <c r="AO8" s="164"/>
-      <c r="AP8" s="165"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="178"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="178"/>
+      <c r="AM8" s="178"/>
+      <c r="AN8" s="178"/>
+      <c r="AO8" s="178"/>
+      <c r="AP8" s="176"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="168" t="s">
+      <c r="E9" s="181"/>
+      <c r="F9" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="168" t="s">
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="157" t="s">
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="158"/>
-      <c r="T9" s="157" t="s">
+      <c r="S9" s="157"/>
+      <c r="T9" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="157" t="s">
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="159"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="157" t="s">
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI9" s="159"/>
-      <c r="AJ9" s="158"/>
-      <c r="AK9" s="157" t="s">
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="159"/>
-      <c r="AM9" s="159"/>
-      <c r="AN9" s="159"/>
-      <c r="AO9" s="159"/>
-      <c r="AP9" s="158"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="157"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="157" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="158"/>
-      <c r="T10" s="157" t="s">
+      <c r="S10" s="157"/>
+      <c r="T10" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="157" t="s">
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="157" t="s">
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="157"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="159"/>
-      <c r="AN10" s="159"/>
-      <c r="AO10" s="159"/>
-      <c r="AP10" s="158"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="155"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="156"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="157"/>
     </row>
     <row r="11" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="168" t="s">
+      <c r="E11" s="181"/>
+      <c r="F11" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="168" t="s">
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="157" t="s">
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="158"/>
-      <c r="T11" s="157" t="s">
+      <c r="S11" s="157"/>
+      <c r="T11" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="157" t="s">
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="157" t="s">
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="157"/>
+      <c r="AH11" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="158"/>
-      <c r="AK11" s="157" t="s">
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="157"/>
+      <c r="AK11" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="AL11" s="159"/>
-      <c r="AM11" s="159"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="158"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="157"/>
     </row>
     <row r="12" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="20">
@@ -6233,33 +6279,33 @@
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="71"/>
-      <c r="R12" s="157" t="s">
+      <c r="R12" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="158"/>
-      <c r="T12" s="157" t="s">
+      <c r="S12" s="157"/>
+      <c r="T12" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="157" t="s">
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="157" t="s">
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="158"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="157"/>
       <c r="AK12" s="67"/>
       <c r="AL12" s="68"/>
       <c r="AM12" s="68"/>
@@ -6285,211 +6331,211 @@
       <c r="O13" s="75"/>
       <c r="P13" s="75"/>
       <c r="Q13" s="74"/>
-      <c r="R13" s="157" t="s">
+      <c r="R13" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="157" t="s">
+      <c r="S13" s="157"/>
+      <c r="T13" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="157" t="s">
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="157" t="s">
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="157"/>
+      <c r="AH13" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI13" s="159"/>
-      <c r="AJ13" s="158"/>
-      <c r="AK13" s="157" t="s">
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="157"/>
+      <c r="AK13" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="AL13" s="159"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="159"/>
-      <c r="AO13" s="159"/>
-      <c r="AP13" s="158"/>
+      <c r="AL13" s="156"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="156"/>
+      <c r="AO13" s="156"/>
+      <c r="AP13" s="157"/>
     </row>
     <row r="14" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20">
         <v>6</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="180" t="s">
+      <c r="E14" s="159"/>
+      <c r="F14" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="180" t="s">
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="157" t="s">
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="S14" s="158"/>
-      <c r="T14" s="157" t="s">
+      <c r="S14" s="157"/>
+      <c r="T14" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="157" t="s">
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="157"/>
+      <c r="Z14" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="159"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="159"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="157" t="s">
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="157"/>
-      <c r="AL14" s="159"/>
-      <c r="AM14" s="159"/>
-      <c r="AN14" s="159"/>
-      <c r="AO14" s="159"/>
-      <c r="AP14" s="158"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="157"/>
+      <c r="AK14" s="155"/>
+      <c r="AL14" s="156"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="157"/>
     </row>
     <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="20">
         <v>7</v>
       </c>
-      <c r="D15" s="183"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="157" t="s">
+      <c r="D15" s="161"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="158"/>
-      <c r="T15" s="157" t="s">
+      <c r="S15" s="157"/>
+      <c r="T15" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="157" t="s">
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="157"/>
+      <c r="Z15" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="AA15" s="159"/>
-      <c r="AB15" s="159"/>
-      <c r="AC15" s="159"/>
-      <c r="AD15" s="159"/>
-      <c r="AE15" s="159"/>
-      <c r="AF15" s="159"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="157" t="s">
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="157"/>
+      <c r="AH15" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="159"/>
-      <c r="AJ15" s="158"/>
-      <c r="AK15" s="157" t="s">
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="157"/>
+      <c r="AK15" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="159"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="159"/>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="158"/>
+      <c r="AL15" s="156"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="157"/>
     </row>
     <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="20">
         <v>8</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="157" t="s">
+      <c r="E16" s="157"/>
+      <c r="F16" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="157" t="s">
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="157" t="s">
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="158"/>
-      <c r="T16" s="157" t="s">
+      <c r="S16" s="157"/>
+      <c r="T16" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="157" t="s">
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="159"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="159"/>
-      <c r="AD16" s="159"/>
-      <c r="AE16" s="159"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="157" t="s">
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="AI16" s="159"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="159"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="159"/>
-      <c r="AO16" s="159"/>
-      <c r="AP16" s="158"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="157"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="156"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="157"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
@@ -7070,16 +7116,63 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="AK7:AP8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AK9:AP9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z9:AG9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:Y8"/>
+    <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="T13:Y13"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7096,63 +7189,16 @@
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z9:AG9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="T7:Y8"/>
-    <mergeCell ref="Z7:AG8"/>
-    <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:Y9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="AK7:AP8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B51EFB-749A-4872-997F-E6B0F38E701E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD98EF87-8244-4961-88D0-3A0CC1BB9F82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>No.</t>
   </si>
@@ -80,11 +80,6 @@
   </si>
   <si>
     <t>Screen</t>
-  </si>
-  <si>
-    <t>Users have the following two roles. 
-- Manager
-- Team member</t>
   </si>
   <si>
     <t>WA10102</t>
@@ -363,6 +358,16 @@
   </si>
   <si>
     <t>Version 1.1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Users have the following two roles. 
+- Project Manager
+- Team member</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -958,14 +963,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -976,7 +984,13 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,6 +1208,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1221,24 +1253,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1253,15 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1984,7 +1989,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,12 +2001,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="84">
+      <c r="I25" s="85">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>44841</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
@@ -2589,7 +2594,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="Q9" sqref="Q9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2598,55 +2603,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="147" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="112">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="115">
         <v>43404</v>
       </c>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="114"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
@@ -2654,53 +2659,53 @@
       <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="126" t="str">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="112">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="115">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44841</v>
       </c>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="114"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="117"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
@@ -2708,45 +2713,45 @@
       <c r="AN2" s="17"/>
     </row>
     <row r="3" spans="1:40" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="147"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="117"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -2755,7 +2760,7 @@
     </row>
     <row r="5" spans="1:40" s="77" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA5" s="79"/>
       <c r="AB5" s="79"/>
@@ -2783,1042 +2788,1042 @@
       <c r="A7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117" t="s">
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="117" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="117" t="s">
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="118"/>
-      <c r="AB7" s="118"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="118"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="117" t="s">
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="122"/>
+    </row>
+    <row r="8" spans="1:40" s="82" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="84">
+        <v>1</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="118"/>
-      <c r="AH7" s="118"/>
-      <c r="AI7" s="119"/>
-    </row>
-    <row r="8" spans="1:40" s="82" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="184">
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="106" t="s">
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="108"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
     </row>
     <row r="9" spans="1:40" s="82" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <v>2</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88">
+        <v>44841</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="87">
-        <v>44841</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="85" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
-      <c r="B32" s="185"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K34" s="83"/>
@@ -4159,163 +4164,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123" t="str">
+      <c r="A1" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="138" t="str">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="147" t="str">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="25"/>
     </row>
     <row r="2" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123" t="str">
+      <c r="A2" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="147" t="str">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="152">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="155">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44841</v>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:38" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123" t="str">
+      <c r="A3" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="147" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
@@ -4375,7 +4380,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
@@ -5810,7 +5815,7 @@
   </sheetPr>
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -5820,446 +5825,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123" t="str">
+      <c r="A1" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="164" t="str">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="173" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>List of System Functions</v>
       </c>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="147" t="str">
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="152">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="155">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43404</v>
       </c>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="154"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
       <c r="AL1" s="17"/>
     </row>
     <row r="2" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123" t="str">
+      <c r="A2" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="147" t="str">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="152">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="155">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v>44841</v>
       </c>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="154"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
       <c r="AL2" s="17"/>
     </row>
     <row r="3" spans="1:42" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123" t="str">
+      <c r="A3" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="147" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="152" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="155" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
       <c r="AL3" s="17"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="173" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="173" t="s">
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="173" t="s">
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="169"/>
+      <c r="T7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="174"/>
-      <c r="T7" s="173" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="173" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="173" t="s">
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="173" t="s">
+      <c r="AI7" s="168"/>
+      <c r="AJ7" s="169"/>
+      <c r="AK7" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="174"/>
+      <c r="AL7" s="168"/>
+      <c r="AM7" s="168"/>
+      <c r="AN7" s="168"/>
+      <c r="AO7" s="168"/>
+      <c r="AP7" s="169"/>
     </row>
     <row r="8" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="183"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="178"/>
-      <c r="W8" s="178"/>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="176"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="178"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="178"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="178"/>
-      <c r="AM8" s="178"/>
-      <c r="AN8" s="178"/>
-      <c r="AO8" s="178"/>
-      <c r="AP8" s="176"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="172"/>
+      <c r="AK8" s="170"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="172"/>
     </row>
     <row r="9" spans="1:42" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="D9" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="179" t="s">
+      <c r="E9" s="184"/>
+      <c r="F9" s="182" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="160"/>
+      <c r="T9" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="155" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="157"/>
-      <c r="T9" s="155" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="155" t="s">
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="157"/>
-      <c r="AH9" s="155" t="s">
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="159"/>
+      <c r="AD9" s="159"/>
+      <c r="AE9" s="159"/>
+      <c r="AF9" s="159"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="157"/>
-      <c r="AK9" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL9" s="156"/>
-      <c r="AM9" s="156"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="157"/>
+      <c r="AI9" s="159"/>
+      <c r="AJ9" s="160"/>
+      <c r="AK9" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" s="159"/>
+      <c r="AM9" s="159"/>
+      <c r="AN9" s="159"/>
+      <c r="AO9" s="159"/>
+      <c r="AP9" s="160"/>
     </row>
     <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="155" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="160"/>
+      <c r="T10" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="157"/>
-      <c r="T10" s="155" t="s">
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="157"/>
-      <c r="AH10" s="155" t="s">
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="159"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="160"/>
+      <c r="AH10" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="157"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="156"/>
-      <c r="AM10" s="156"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="157"/>
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="160"/>
+      <c r="AK10" s="158"/>
+      <c r="AL10" s="159"/>
+      <c r="AM10" s="159"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="160"/>
     </row>
     <row r="11" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="20">
         <v>3</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="184"/>
+      <c r="F11" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="179" t="s">
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="179" t="s">
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="155" t="s">
+      <c r="S11" s="160"/>
+      <c r="T11" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="157"/>
-      <c r="T11" s="155" t="s">
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="157"/>
-      <c r="Z11" s="155" t="s">
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="159"/>
+      <c r="AD11" s="159"/>
+      <c r="AE11" s="159"/>
+      <c r="AF11" s="159"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI11" s="159"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="157"/>
-      <c r="AH11" s="155" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="157"/>
-      <c r="AK11" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="157"/>
+      <c r="AL11" s="159"/>
+      <c r="AM11" s="159"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="160"/>
     </row>
     <row r="12" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="20">
@@ -6279,33 +6284,33 @@
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="71"/>
-      <c r="R12" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="157"/>
-      <c r="T12" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="155" t="s">
+      <c r="R12" s="158" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="160"/>
+      <c r="T12" s="158" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="158" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="159"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="159"/>
+      <c r="AE12" s="159"/>
+      <c r="AF12" s="159"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="157"/>
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="160"/>
       <c r="AK12" s="67"/>
       <c r="AL12" s="68"/>
       <c r="AM12" s="68"/>
@@ -6331,211 +6336,211 @@
       <c r="O13" s="75"/>
       <c r="P13" s="75"/>
       <c r="Q13" s="74"/>
-      <c r="R13" s="155" t="s">
+      <c r="R13" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="160"/>
+      <c r="T13" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="157"/>
-      <c r="T13" s="155" t="s">
-        <v>43</v>
-      </c>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="155" t="s">
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="158" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="159"/>
+      <c r="AB13" s="159"/>
+      <c r="AC13" s="159"/>
+      <c r="AD13" s="159"/>
+      <c r="AE13" s="159"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="155" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="156"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="157"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL13" s="159"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="159"/>
+      <c r="AO13" s="159"/>
+      <c r="AP13" s="160"/>
     </row>
     <row r="14" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20">
         <v>6</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="162"/>
+      <c r="F14" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="158" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="158" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="157"/>
-      <c r="T14" s="155" t="s">
+      <c r="S14" s="160"/>
+      <c r="T14" s="158" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="155" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="155" t="s">
+      <c r="AA14" s="159"/>
+      <c r="AB14" s="159"/>
+      <c r="AC14" s="159"/>
+      <c r="AD14" s="159"/>
+      <c r="AE14" s="159"/>
+      <c r="AF14" s="159"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="157"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="156"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="157"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="160"/>
+      <c r="AK14" s="158"/>
+      <c r="AL14" s="159"/>
+      <c r="AM14" s="159"/>
+      <c r="AN14" s="159"/>
+      <c r="AO14" s="159"/>
+      <c r="AP14" s="160"/>
     </row>
     <row r="15" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="20">
         <v>7</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="157"/>
-      <c r="T15" s="155" t="s">
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="160"/>
+      <c r="T15" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="159"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="155" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="155" t="s">
+      <c r="AA15" s="159"/>
+      <c r="AB15" s="159"/>
+      <c r="AC15" s="159"/>
+      <c r="AD15" s="159"/>
+      <c r="AE15" s="159"/>
+      <c r="AF15" s="159"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="155" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL15" s="156"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="157"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="160"/>
+      <c r="AK15" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL15" s="159"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="159"/>
+      <c r="AO15" s="159"/>
+      <c r="AP15" s="160"/>
     </row>
     <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="20">
         <v>8</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="160"/>
+      <c r="F16" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="155" t="s">
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="155" t="s">
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="155" t="s">
+      <c r="S16" s="160"/>
+      <c r="T16" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="157"/>
-      <c r="T16" s="155" t="s">
+      <c r="U16" s="159"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="159"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="155" t="s">
+      <c r="AA16" s="159"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="159"/>
+      <c r="AD16" s="159"/>
+      <c r="AE16" s="159"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="155"/>
-      <c r="AL16" s="156"/>
-      <c r="AM16" s="156"/>
-      <c r="AN16" s="156"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="157"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="160"/>
+      <c r="AK16" s="158"/>
+      <c r="AL16" s="159"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="159"/>
+      <c r="AO16" s="159"/>
+      <c r="AP16" s="160"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
@@ -7148,11 +7153,6 @@
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="Z9:AG9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -7161,6 +7161,11 @@
     <mergeCell ref="R7:S8"/>
     <mergeCell ref="T7:Y8"/>
     <mergeCell ref="Z7:AG8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AH7:AJ8"/>
     <mergeCell ref="AK10:AP10"/>
     <mergeCell ref="AK15:AP15"/>
@@ -7173,6 +7178,10 @@
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T12:Y12"/>
     <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="Z13:AG13"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:J10"/>
@@ -7189,16 +7198,12 @@
     <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:Y16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_Functionality_A1_Project_Management_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B2F69-CB08-4325-B085-B44A220B11D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71763C72-248C-4E5F-8121-718878984C64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$35</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>No.</t>
   </si>
@@ -67,37 +67,19 @@
     <t>A101</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Provide a login function to the project management screen.</t>
   </si>
   <si>
     <t>WA10101</t>
   </si>
   <si>
-    <t>Perform Form authentication with the user ID and password for the user.</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
-    <t>WA10102</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Logs out the currently logged-in user.</t>
-  </si>
-  <si>
     <t>TOP Menu</t>
   </si>
   <si>
     <t>Displays a list of menus that can be selected by the logged-in user.</t>
-  </si>
-  <si>
-    <t>Generic error</t>
   </si>
   <si>
     <t>For the errors that occur, content and solution are displayed to the user on the screen.</t>
@@ -368,6 +350,19 @@
   </si>
   <si>
     <t>Common</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perform Form authentication with the user ID and password for the user.
+logout a user who is currently logged in.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>General error</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1987,7 +1982,7 @@
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="J23" s="73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2602,13 +2597,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
       <c r="D1" s="123"/>
       <c r="E1" s="124" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" s="125"/>
       <c r="G1" s="125"/>
@@ -2620,13 +2615,13 @@
       <c r="M1" s="125"/>
       <c r="N1" s="126"/>
       <c r="O1" s="130" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P1" s="131"/>
       <c r="Q1" s="131"/>
       <c r="R1" s="132"/>
       <c r="S1" s="139" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T1" s="140"/>
       <c r="U1" s="140"/>
@@ -2636,7 +2631,7 @@
       <c r="Y1" s="140"/>
       <c r="Z1" s="141"/>
       <c r="AA1" s="121" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="123"/>
       <c r="AC1" s="148" t="s">
@@ -2658,13 +2653,13 @@
     </row>
     <row r="2" spans="1:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="123"/>
       <c r="E2" s="124" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" s="125"/>
       <c r="G2" s="125"/>
@@ -2688,7 +2683,7 @@
       <c r="Y2" s="143"/>
       <c r="Z2" s="144"/>
       <c r="AA2" s="121" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="123"/>
       <c r="AC2" s="127" t="str">
@@ -2712,13 +2707,13 @@
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="121" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="122"/>
       <c r="C3" s="122"/>
       <c r="D3" s="123"/>
       <c r="E3" s="124" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
@@ -2758,7 +2753,7 @@
     </row>
     <row r="5" spans="1:40" s="51" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N5" s="52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="53"/>
       <c r="AB5" s="53"/>
@@ -2787,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" s="117"/>
       <c r="D7" s="118" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="119"/>
       <c r="F7" s="120"/>
       <c r="G7" s="118" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" s="119"/>
       <c r="I7" s="120"/>
       <c r="J7" s="118" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K7" s="119"/>
       <c r="L7" s="119"/>
@@ -2810,7 +2805,7 @@
       <c r="O7" s="119"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="118" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R7" s="119"/>
       <c r="S7" s="119"/>
@@ -2827,7 +2822,7 @@
       <c r="AD7" s="119"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="118" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AG7" s="119"/>
       <c r="AH7" s="119"/>
@@ -2838,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="101">
@@ -2847,7 +2842,7 @@
       <c r="E8" s="102"/>
       <c r="F8" s="103"/>
       <c r="G8" s="104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H8" s="105"/>
       <c r="I8" s="106"/>
@@ -2861,7 +2856,7 @@
       <c r="O8" s="108"/>
       <c r="P8" s="109"/>
       <c r="Q8" s="110" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R8" s="111"/>
       <c r="S8" s="111"/>
@@ -2889,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="86">
@@ -2898,12 +2893,12 @@
       <c r="E9" s="87"/>
       <c r="F9" s="88"/>
       <c r="G9" s="89" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H9" s="90"/>
       <c r="I9" s="91"/>
       <c r="J9" s="92" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K9" s="93"/>
       <c r="L9" s="93"/>
@@ -2912,7 +2907,7 @@
       <c r="O9" s="93"/>
       <c r="P9" s="94"/>
       <c r="Q9" s="95" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R9" s="96"/>
       <c r="S9" s="96"/>
@@ -2929,7 +2924,7 @@
       <c r="AD9" s="96"/>
       <c r="AE9" s="97"/>
       <c r="AF9" s="92" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AG9" s="93"/>
       <c r="AH9" s="93"/>
@@ -4163,7 +4158,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -4182,7 +4177,7 @@
       <c r="M1" s="125"/>
       <c r="N1" s="126"/>
       <c r="O1" s="130" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P1" s="131"/>
       <c r="Q1" s="131"/>
@@ -4199,7 +4194,7 @@
       <c r="Y1" s="140"/>
       <c r="Z1" s="141"/>
       <c r="AA1" s="121" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="123"/>
       <c r="AC1" s="148" t="str">
@@ -4221,7 +4216,7 @@
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
@@ -4252,7 +4247,7 @@
       <c r="Y2" s="143"/>
       <c r="Z2" s="144"/>
       <c r="AA2" s="121" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="123"/>
       <c r="AC2" s="148" t="str">
@@ -4274,7 +4269,7 @@
     </row>
     <row r="3" spans="1:38" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="121" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="122"/>
       <c r="C3" s="122"/>
@@ -4378,7 +4373,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -5811,7 +5806,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5824,7 +5819,7 @@
   <sheetData>
     <row r="1" spans="1:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="122"/>
       <c r="C1" s="122"/>
@@ -5843,7 +5838,7 @@
       <c r="M1" s="125"/>
       <c r="N1" s="126"/>
       <c r="O1" s="130" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P1" s="131"/>
       <c r="Q1" s="131"/>
@@ -5860,7 +5855,7 @@
       <c r="Y1" s="166"/>
       <c r="Z1" s="167"/>
       <c r="AA1" s="121" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="123"/>
       <c r="AC1" s="148" t="str">
@@ -5882,7 +5877,7 @@
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
@@ -5913,7 +5908,7 @@
       <c r="Y2" s="169"/>
       <c r="Z2" s="170"/>
       <c r="AA2" s="121" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="123"/>
       <c r="AC2" s="148" t="str">
@@ -5935,7 +5930,7 @@
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="121" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="122"/>
       <c r="C3" s="122"/>
@@ -5986,7 +5981,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6015,11 +6010,11 @@
       <c r="P7" s="178"/>
       <c r="Q7" s="175"/>
       <c r="R7" s="174" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S7" s="175"/>
       <c r="T7" s="174" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U7" s="178"/>
       <c r="V7" s="178"/>
@@ -6027,7 +6022,7 @@
       <c r="X7" s="178"/>
       <c r="Y7" s="175"/>
       <c r="Z7" s="174" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="178"/>
       <c r="AB7" s="178"/>
@@ -6101,14 +6096,14 @@
       </c>
       <c r="E9" s="182"/>
       <c r="F9" s="180" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G9" s="181"/>
       <c r="H9" s="181"/>
       <c r="I9" s="181"/>
       <c r="J9" s="182"/>
       <c r="K9" s="180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" s="181"/>
       <c r="M9" s="181"/>
@@ -6117,11 +6112,11 @@
       <c r="P9" s="181"/>
       <c r="Q9" s="182"/>
       <c r="R9" s="156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S9" s="157"/>
       <c r="T9" s="156" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="U9" s="158"/>
       <c r="V9" s="158"/>
@@ -6129,7 +6124,7 @@
       <c r="X9" s="158"/>
       <c r="Y9" s="157"/>
       <c r="Z9" s="156" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="158"/>
       <c r="AB9" s="158"/>
@@ -6139,12 +6134,12 @@
       <c r="AF9" s="158"/>
       <c r="AG9" s="157"/>
       <c r="AH9" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" s="158"/>
       <c r="AJ9" s="157"/>
       <c r="AK9" s="156" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AL9" s="158"/>
       <c r="AM9" s="158"/>
@@ -6152,30 +6147,36 @@
       <c r="AO9" s="158"/>
       <c r="AP9" s="157"/>
     </row>
-    <row r="10" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="160"/>
+      <c r="D10" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="182"/>
+      <c r="F10" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="182"/>
       <c r="R10" s="156" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S10" s="157"/>
       <c r="T10" s="156" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U10" s="158"/>
       <c r="V10" s="158"/>
@@ -6183,7 +6184,7 @@
       <c r="X10" s="158"/>
       <c r="Y10" s="157"/>
       <c r="Z10" s="156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA10" s="158"/>
       <c r="AB10" s="158"/>
@@ -6193,47 +6194,43 @@
       <c r="AF10" s="158"/>
       <c r="AG10" s="157"/>
       <c r="AH10" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI10" s="158"/>
       <c r="AJ10" s="157"/>
-      <c r="AK10" s="156"/>
+      <c r="AK10" s="156" t="s">
+        <v>22</v>
+      </c>
       <c r="AL10" s="158"/>
       <c r="AM10" s="158"/>
       <c r="AN10" s="158"/>
       <c r="AO10" s="158"/>
       <c r="AP10" s="157"/>
     </row>
-    <row r="11" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="180" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="182"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="156" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S11" s="157"/>
       <c r="T11" s="156" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="U11" s="158"/>
       <c r="V11" s="158"/>
@@ -6241,7 +6238,7 @@
       <c r="X11" s="158"/>
       <c r="Y11" s="157"/>
       <c r="Z11" s="156" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="158"/>
       <c r="AB11" s="158"/>
@@ -6251,43 +6248,41 @@
       <c r="AF11" s="158"/>
       <c r="AG11" s="157"/>
       <c r="AH11" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI11" s="158"/>
       <c r="AJ11" s="157"/>
-      <c r="AK11" s="156" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL11" s="158"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="158"/>
-      <c r="AP11" s="157"/>
-    </row>
-    <row r="12" spans="1:42" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="61"/>
+    </row>
+    <row r="12" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="63"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="66"/>
       <c r="R12" s="156" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S12" s="157"/>
       <c r="T12" s="156" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="U12" s="158"/>
       <c r="V12" s="158"/>
@@ -6295,7 +6290,7 @@
       <c r="X12" s="158"/>
       <c r="Y12" s="157"/>
       <c r="Z12" s="156" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA12" s="158"/>
       <c r="AB12" s="158"/>
@@ -6305,41 +6300,49 @@
       <c r="AF12" s="158"/>
       <c r="AG12" s="157"/>
       <c r="AH12" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI12" s="158"/>
       <c r="AJ12" s="157"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="61"/>
-    </row>
-    <row r="13" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK12" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="158"/>
+      <c r="AN12" s="158"/>
+      <c r="AO12" s="158"/>
+      <c r="AP12" s="157"/>
+    </row>
+    <row r="13" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="66"/>
+      <c r="D13" s="159" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="160"/>
+      <c r="F13" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="159" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="160"/>
       <c r="R13" s="156" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="S13" s="157"/>
       <c r="T13" s="156" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="U13" s="158"/>
       <c r="V13" s="158"/>
@@ -6347,7 +6350,7 @@
       <c r="X13" s="158"/>
       <c r="Y13" s="157"/>
       <c r="Z13" s="156" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AA13" s="158"/>
       <c r="AB13" s="158"/>
@@ -6357,49 +6360,41 @@
       <c r="AF13" s="158"/>
       <c r="AG13" s="157"/>
       <c r="AH13" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI13" s="158"/>
       <c r="AJ13" s="157"/>
-      <c r="AK13" s="156" t="s">
-        <v>69</v>
-      </c>
+      <c r="AK13" s="156"/>
       <c r="AL13" s="158"/>
       <c r="AM13" s="158"/>
       <c r="AN13" s="158"/>
       <c r="AO13" s="158"/>
       <c r="AP13" s="157"/>
     </row>
-    <row r="14" spans="1:42" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>6</v>
       </c>
-      <c r="D14" s="159" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="159" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="163"/>
       <c r="R14" s="156" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="S14" s="157"/>
       <c r="T14" s="156" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="U14" s="158"/>
       <c r="V14" s="158"/>
@@ -6407,7 +6402,7 @@
       <c r="X14" s="158"/>
       <c r="Y14" s="157"/>
       <c r="Z14" s="156" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA14" s="158"/>
       <c r="AB14" s="158"/>
@@ -6417,11 +6412,13 @@
       <c r="AF14" s="158"/>
       <c r="AG14" s="157"/>
       <c r="AH14" s="156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI14" s="158"/>
       <c r="AJ14" s="157"/>
-      <c r="AK14" s="156"/>
+      <c r="AK14" s="156" t="s">
+        <v>64</v>
+      </c>
       <c r="AL14" s="158"/>
       <c r="AM14" s="158"/>
       <c r="AN14" s="158"/>
@@ -6432,26 +6429,32 @@
       <c r="C15" s="4">
         <v>7</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="163"/>
+      <c r="D15" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="157"/>
+      <c r="F15" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="157"/>
       <c r="R15" s="156" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="S15" s="157"/>
       <c r="T15" s="156" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U15" s="158"/>
       <c r="V15" s="158"/>
@@ -6459,7 +6462,7 @@
       <c r="X15" s="158"/>
       <c r="Y15" s="157"/>
       <c r="Z15" s="156" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="158"/>
       <c r="AB15" s="158"/>
@@ -6469,122 +6472,103 @@
       <c r="AF15" s="158"/>
       <c r="AG15" s="157"/>
       <c r="AH15" s="156" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AI15" s="158"/>
       <c r="AJ15" s="157"/>
-      <c r="AK15" s="156" t="s">
-        <v>70</v>
-      </c>
+      <c r="AK15" s="156"/>
       <c r="AL15" s="158"/>
       <c r="AM15" s="158"/>
       <c r="AN15" s="158"/>
       <c r="AO15" s="158"/>
       <c r="AP15" s="157"/>
     </row>
-    <row r="16" spans="1:42" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="4">
-        <v>8</v>
-      </c>
-      <c r="D16" s="156" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="156" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="156" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="157"/>
-      <c r="T16" s="156" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="156"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="158"/>
-      <c r="AN16" s="158"/>
-      <c r="AO16" s="158"/>
-      <c r="AP16" s="157"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -6625,7 +6609,7 @@
       <c r="AM18" s="64"/>
       <c r="AN18" s="64"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -6666,7 +6650,7 @@
       <c r="AM19" s="64"/>
       <c r="AN19" s="64"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -6707,7 +6691,7 @@
       <c r="AM20" s="64"/>
       <c r="AN20" s="64"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -6748,7 +6732,7 @@
       <c r="AM21" s="64"/>
       <c r="AN21" s="64"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -6789,7 +6773,7 @@
       <c r="AM22" s="64"/>
       <c r="AN22" s="64"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -6830,7 +6814,7 @@
       <c r="AM23" s="64"/>
       <c r="AN23" s="64"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -6871,7 +6855,7 @@
       <c r="AM24" s="64"/>
       <c r="AN24" s="64"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -6912,7 +6896,7 @@
       <c r="AM25" s="64"/>
       <c r="AN25" s="64"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -6953,7 +6937,7 @@
       <c r="AM26" s="64"/>
       <c r="AN26" s="64"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -6994,7 +6978,7 @@
       <c r="AM27" s="64"/>
       <c r="AN27" s="64"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
@@ -7035,7 +7019,7 @@
       <c r="AM28" s="64"/>
       <c r="AN28" s="64"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -7076,66 +7060,20 @@
       <c r="AM29" s="64"/>
       <c r="AN29" s="64"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="64"/>
-      <c r="AL30" s="64"/>
-      <c r="AM30" s="64"/>
-      <c r="AN30" s="64"/>
-    </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="K7:Q8"/>
+  <mergeCells count="75">
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:Y11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
     <mergeCell ref="AK7:AP8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="AK9:AP9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7151,6 +7089,7 @@
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="K7:Q8"/>
     <mergeCell ref="Z9:AG9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -7165,43 +7104,39 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AH7:AJ8"/>
-    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:Y14"/>
     <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="Z15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="Z16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
